--- a/Cronograma/Cronograma-Actividades_Herrera_V2.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E79FF-B0A3-48A8-B48C-F57B19F26D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6586ACB-236B-49FE-98EC-A3412A07191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Activity</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Revisión  del código de la app móvil</t>
-  </si>
-  <si>
-    <t>0/1/1900</t>
   </si>
   <si>
     <r>
@@ -1030,7 +1027,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1046,14 @@
     <font>
       <b/>
       <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1159,34 +1164,16 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1198,13 +1185,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1523,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5508007A-8F80-4A7F-BD52-B55F5D6EC2B9}">
   <dimension ref="C1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,22 +1584,22 @@
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="22">
         <v>45559</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="22">
         <v>45562</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="22">
         <v>45559</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="21">
         <v>0.58333333333333337</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -1603,767 +1608,767 @@
       <c r="J5" s="7">
         <v>6</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="20">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="7">
         <v>6</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="7">
         <v>6</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="7">
         <v>6</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="22">
         <v>45565</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="24">
         <v>45588</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="22">
+        <v>45565</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="12">
+      <c r="J9" s="7">
+        <v>6</v>
+      </c>
+      <c r="K9" s="20">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="7">
+        <v>6</v>
+      </c>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="7">
+        <v>6</v>
+      </c>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="7">
+        <v>6</v>
+      </c>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="7">
+        <v>6</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="7">
+        <v>6</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C16" s="20"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="7">
+        <v>6</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C17" s="20"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="7">
+        <v>6</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="20"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="7">
+        <v>6</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="7">
+        <v>6</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="20"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="7">
+        <v>6</v>
+      </c>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="3:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="20"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="7">
+        <v>6</v>
+      </c>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="3:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="7">
+        <v>6</v>
+      </c>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="20"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="7">
+        <v>6</v>
+      </c>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="20"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="7">
+        <v>6</v>
+      </c>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="3:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="C26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="22">
+        <v>45590</v>
+      </c>
+      <c r="E26" s="22">
+        <v>45594</v>
+      </c>
+      <c r="F26" s="22">
+        <v>45590</v>
+      </c>
+      <c r="G26" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H26" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="7">
-        <v>6</v>
-      </c>
-      <c r="K9" s="10">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="7">
-        <v>6</v>
-      </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="7">
-        <v>6</v>
-      </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="7">
-        <v>6</v>
-      </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="7">
-        <v>6</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="7">
-        <v>6</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="7">
-        <v>6</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="7">
-        <v>6</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="7">
-        <v>6</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="7">
-        <v>6</v>
-      </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="7">
-        <v>6</v>
-      </c>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="7">
-        <v>6</v>
-      </c>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="7">
-        <v>6</v>
-      </c>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="3:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="7">
-        <v>6</v>
-      </c>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="3:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="7">
-        <v>6</v>
-      </c>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="8" t="s">
+      <c r="I26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="7">
+        <v>6</v>
+      </c>
+      <c r="K26" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C27" s="20"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="7">
+        <v>6</v>
+      </c>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="20"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="7">
+        <v>6</v>
+      </c>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="22">
+        <v>45596</v>
+      </c>
+      <c r="E29" s="22">
+        <v>45604</v>
+      </c>
+      <c r="F29" s="22">
+        <v>45596</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J24" s="7">
-        <v>6</v>
-      </c>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="7">
-        <v>6</v>
-      </c>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="11">
-        <v>45590</v>
-      </c>
-      <c r="E26" s="11">
-        <v>45594</v>
-      </c>
-      <c r="F26" s="11">
-        <v>45590</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="7">
-        <v>6</v>
-      </c>
-      <c r="K26" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="7">
-        <v>6</v>
-      </c>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="7">
-        <v>6</v>
-      </c>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="11">
-        <v>45596</v>
-      </c>
-      <c r="E29" s="11">
-        <v>45604</v>
-      </c>
-      <c r="F29" s="11">
-        <v>45596</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="J29" s="7">
         <v>4</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="20">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
       <c r="I30" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30" s="7">
         <v>2</v>
       </c>
-      <c r="K30" s="10"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
       <c r="I31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J31" s="7">
         <v>4</v>
       </c>
-      <c r="K31" s="10"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
       <c r="I32" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J32" s="7">
         <v>2</v>
       </c>
-      <c r="K32" s="10"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
       <c r="I33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" s="7">
         <v>3</v>
       </c>
-      <c r="K33" s="10"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
       <c r="I34" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J34" s="7">
         <v>3</v>
       </c>
-      <c r="K34" s="10"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J35" s="7">
         <v>4</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
       <c r="I36" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" s="7">
         <v>2</v>
       </c>
-      <c r="K36" s="10"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="22">
         <v>45607</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="22">
         <v>45615</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="22">
         <v>45607</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="21">
         <v>0.58333333333333337</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J37" s="7">
         <v>2</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="20">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
       <c r="I38" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" s="7">
         <v>4</v>
       </c>
-      <c r="K38" s="10"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
       <c r="I39" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J39" s="7">
         <v>2</v>
       </c>
-      <c r="K39" s="10"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="13" t="s">
-        <v>59</v>
+      <c r="C40" s="20"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="J40" s="7">
         <v>4</v>
       </c>
-      <c r="K40" s="10"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
       <c r="I41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J41" s="7">
         <v>1</v>
       </c>
-      <c r="K41" s="10"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
       <c r="I42" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J42" s="7">
         <v>3</v>
       </c>
-      <c r="K42" s="10"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
       <c r="I43" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J43" s="7">
         <v>2</v>
       </c>
-      <c r="K43" s="10"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
       <c r="I44" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J44" s="7">
         <v>5</v>
       </c>
-      <c r="K44" s="10"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="14" t="s">
-        <v>64</v>
+      <c r="C45" s="20"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="J45" s="7">
         <v>1</v>
       </c>
-      <c r="K45" s="10"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
       <c r="I46" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J46" s="7">
         <v>5</v>
       </c>
-      <c r="K46" s="10"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
       <c r="I47" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J47" s="7">
         <v>1</v>
       </c>
-      <c r="K47" s="10"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
       <c r="I48" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J48" s="7">
         <v>4</v>
       </c>
-      <c r="K48" s="10"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J49" s="7">
         <v>2</v>
       </c>
-      <c r="K49" s="10"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
       <c r="I50" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J50" s="7">
         <v>4</v>
       </c>
-      <c r="K50" s="10"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
       <c r="I51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J51" s="7">
         <v>2</v>
       </c>
-      <c r="K51" s="10"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="14">
         <v>45616</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="14">
         <v>45616</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="14">
         <v>45616</v>
       </c>
       <c r="G52" s="16">
@@ -2373,88 +2378,88 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J52" s="7">
         <v>2</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K52" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="3:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="19"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="15" t="s">
-        <v>72</v>
+      <c r="C53" s="13"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="J53" s="7">
         <v>4</v>
       </c>
-      <c r="K53" s="19"/>
+      <c r="K53" s="13"/>
     </row>
     <row r="54" spans="3:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="22">
         <v>45617</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="22">
         <v>45618</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="22">
         <v>45618</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="21">
         <v>0.58333333333333337</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J54" s="7">
         <v>3</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="20">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="3:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
       <c r="I55" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J55" s="7">
         <v>3</v>
       </c>
-      <c r="K55" s="10"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
       <c r="I56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="7">
         <v>6</v>
       </c>
-      <c r="K56" s="10"/>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
@@ -2486,16 +2491,16 @@
       </c>
     </row>
     <row r="58" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="14">
         <v>45622</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="14">
         <v>45622</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="14">
         <v>45622</v>
       </c>
       <c r="G58" s="16">
@@ -2505,55 +2510,55 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J58" s="3">
         <v>3</v>
       </c>
-      <c r="K58" s="18">
+      <c r="K58" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C59" s="24"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
       <c r="I59" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J59" s="3">
         <v>1</v>
       </c>
-      <c r="K59" s="24"/>
+      <c r="K59" s="12"/>
     </row>
     <row r="60" spans="3:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="19"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J60" s="3">
         <v>2</v>
       </c>
-      <c r="K60" s="19"/>
+      <c r="K60" s="13"/>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="6">
         <f>SUM(J5:J60)</f>
         <v>240</v>
@@ -2565,41 +2570,13 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="K29:K36"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="H29:H36"/>
-    <mergeCell ref="D37:D51"/>
-    <mergeCell ref="E37:E51"/>
-    <mergeCell ref="F37:F51"/>
-    <mergeCell ref="G37:G51"/>
-    <mergeCell ref="H37:H51"/>
-    <mergeCell ref="C37:C51"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
@@ -2615,13 +2592,41 @@
     <mergeCell ref="G9:G25"/>
     <mergeCell ref="H9:H25"/>
     <mergeCell ref="K9:K25"/>
-    <mergeCell ref="C61:I61"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="C37:C51"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="K29:K36"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="H29:H36"/>
+    <mergeCell ref="D37:D51"/>
+    <mergeCell ref="E37:E51"/>
+    <mergeCell ref="F37:F51"/>
+    <mergeCell ref="G37:G51"/>
+    <mergeCell ref="H37:H51"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="K54:K56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma/Cronograma-Actividades_Herrera_V2.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera_V2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F616CA35-8D74-4D05-AF2B-24F02B6525F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A8272-4EE7-46D3-AAD4-B39D3C20432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="5" r:id="rId1"/>
+    <sheet name="Conograma DET" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="242">
   <si>
     <t>Activity</t>
   </si>
@@ -1024,13 +1025,580 @@
       </rPr>
       <t xml:space="preserve"> Revisión exhaustiva del código modificado para identificar posibles errores detectados en las rondas de pruebas anteriores.</t>
     </r>
+  </si>
+  <si>
+    <t>Fecha Inicio: 24/9/2024</t>
+  </si>
+  <si>
+    <t>Fecha Fin: 26/11/2024</t>
+  </si>
+  <si>
+    <t>Departamento: Departamento de Tic del COMACO</t>
+  </si>
+  <si>
+    <t>CONOGRAMA DE PRACTICAS PREPROFESIONALES</t>
+  </si>
+  <si>
+    <t>Función: Pasante de desarrollo y actualizacion de aplicativos moviles</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Activity General</t>
+  </si>
+  <si>
+    <t>Weekly summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introducción a las herramientas.</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Taller práctico sobre el uso de herramientas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evaluación de conocimientos.</t>
+  </si>
+  <si>
+    <t>Capacitación en tecnologías.</t>
+  </si>
+  <si>
+    <t>Explorar las herramientas y conocer sus funciones principales.</t>
+  </si>
+  <si>
+    <t>Configurar las herramientas en el entorno de trabajo.</t>
+  </si>
+  <si>
+    <t>Asistir a una sesión teórica sobre tecnologías clave.</t>
+  </si>
+  <si>
+    <t>Realizar ejercicios prácticos para aplicar los conceptos aprendidos.</t>
+  </si>
+  <si>
+    <t>Crear un proyecto básico usando las herramientas aprendidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inicio del proyecto con una revisión exhaustiva del código para identificar posibles errores generales y áreas problemáticas.</t>
+  </si>
+  <si>
+    <t>Identificación de secciones obsoletas en las librerias que podrían requerir actualización o eliminación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Búsqueda inicial de librerías actualizadas y complementarias para reemplazar o mejorar las secciones obsoletas (Parte 1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Continuación de la búsqueda de librerías para cubrir todas las necesidades identificadas en el análisis anterior (Parte 2).</t>
+  </si>
+  <si>
+    <t>Implementación inicial de las correcciones basadas en los errores detectados y en las librerías seleccionadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Primera ronda de pruebas para evaluar la efectividad de las correcciones aplicadas y análisis de los resultados obtenidos (Parte 1).</t>
+  </si>
+  <si>
+    <t>Aplicación de correcciones adicionales utilizando nuevas versiones de las librerías identificadas en días anteriores.</t>
+  </si>
+  <si>
+    <t>Revisión exhaustiva del código modificado para identificar posibles errores detectados en las rondas de pruebas anteriores.</t>
+  </si>
+  <si>
+    <t>Pruebas y análisis detallados de los cambios realizados, enfocándose en la resolución de los errores restantes (Parte 2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Descarga, integración y configuración de nuevas librerías y componentes para mejorar el rendimiento del sistema.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pruebas y corrección de problemas relacionados con la integración de las nuevas librerías y componentes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Implementación de nuevas librerias durante las pruebas</t>
+    </r>
+  </si>
+  <si>
+    <t>Pruebas de las nuevas librerias implementadas desde un IDE (Parte 1).</t>
+  </si>
+  <si>
+    <t>Identificación y corrección de errores detectados durante las pruebas en el IDE, con ajustes necesarios.</t>
+  </si>
+  <si>
+    <t>Segunda ronda de pruebas de las mejoras implementadas desde un  IDE.</t>
+  </si>
+  <si>
+    <t>Elaboración del borrador del documento de actualización de la aplicación, detallando los cambios realizados y los resultados obtenidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Análisis de los errores encontrados y evaluación de posibles soluciones.</t>
+  </si>
+  <si>
+    <t>Revisión del código para identificar errores generales y áreas problemáticas</t>
+  </si>
+  <si>
+    <t>Documentación de hallazgos iniciales y planificación de próximas actividades</t>
+  </si>
+  <si>
+    <t>Análisis de las librerías obsoletas y su funcionalidad actual</t>
+  </si>
+  <si>
+    <t>Listar posibles alternativas y priorizar áreas de atención</t>
+  </si>
+  <si>
+    <t>Investigación de librerías complementarias y actualizadas</t>
+  </si>
+  <si>
+    <t>Revisión de compatibilidad de librerías seleccionadas con el sistema actual</t>
+  </si>
+  <si>
+    <t>Descarga y configuración inicial de las nuevas librerías</t>
+  </si>
+  <si>
+    <t>Análisis y pruebas  detallado de las dependencias de las librerías seleccionadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación y clasificación de errores detectados en pruebas iniciales </t>
+  </si>
+  <si>
+    <t>Evaluación de soluciones y diseño de correcciones prioritarias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustes en el código según los errores identificados </t>
+  </si>
+  <si>
+    <t>Pruebas preliminares de las correcciones aplicadas</t>
+  </si>
+  <si>
+    <t>Ejecución de pruebas para evaluar efectividad de las correcciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis y registro de resultados obtenidos </t>
+  </si>
+  <si>
+    <t>Aplicación de nuevas versiones de librerías para resolver errores restantes</t>
+  </si>
+  <si>
+    <t>Pruebas rápidas de validación de los cambios realizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarga e integración de nuevas librerías y componentes </t>
+  </si>
+  <si>
+    <t>Configuración y ajuste inicial de las librerías integradas</t>
+  </si>
+  <si>
+    <t>Pruebas iniciales para verificar integración de librerías</t>
+  </si>
+  <si>
+    <t>Corrección de problemas detectados durante las pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redacción del borrador, describiendo cambios y resultados obtenidos </t>
+  </si>
+  <si>
+    <t>Revisión del documento para asegurar claridad y precisión</t>
+  </si>
+  <si>
+    <t>Análisis de errores detectados durante las pruebas en el IDE</t>
+  </si>
+  <si>
+    <t>Ajustes y validaciones para corregir los errores identificados</t>
+  </si>
+  <si>
+    <t>Durante esta fase se trabajó en la identificación y resolución de errores del código y en la actualización de librerías obsoletas. Se realizaron análisis detallados, búsqueda e integración de nuevas librerías, pruebas exhaustivas en diferentes etapas y corrección de problemas detectados. Además, se implementaron ajustes para mejorar el rendimiento y estabilidad del sistema. Finalmente, se elaboró un borrador que documenta los cambios realizados y los resultados obtenidos durante el proceso.</t>
+  </si>
+  <si>
+    <t>Del 24 al 27 de septiembre de 2024, se llevó a cabo una capacitación intensiva sobre las herramientas y tecnologías del proyecto. Esto incluyó la introducción, configuración, práctica guiada y evaluación final para garantizar la comprensión y aplicación de los conceptos aprendidos. Cada día tuvo un enfoque específico que sentó las bases para un desarrollo eficiente y alineado con los objetivos del proyecto.</t>
+  </si>
+  <si>
+    <t>Revisión detallada de los servicios (Base de datos y autentificación movil) en la app, identificando y analizando en qué partes del código estaban siendo llamados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modificación y pruebas  del código para validar correctamente los llamados a los servicios y asegurar su correcta integración</t>
+  </si>
+  <si>
+    <t>Pruebas para garantizar que los servicios están siendo llamados de manera adecuada y eficiente, ajustando cualquier error encontrado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inspección del código para identificar llamados a los servicios de base de datos.</t>
+  </si>
+  <si>
+    <t>Revisión de los métodos de autenticación móvil implementados.</t>
+  </si>
+  <si>
+    <t>Documentación de los resultados encontrados y áreas de mejora en los servicios.</t>
+  </si>
+  <si>
+    <t>Pruebas funcionales para verificar el rendimiento de los servicios.</t>
+  </si>
+  <si>
+    <t>Ajustes menores en el código según errores encontrados en las pruebas.</t>
+  </si>
+  <si>
+    <t>Validación final con un entorno simulado para asegurar eficiencia y efectividad.</t>
+  </si>
+  <si>
+    <t>Ajustes en el código para corregir errores en los llamados a los servicios.</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias para validar los cambios realizados</t>
+  </si>
+  <si>
+    <t>Revisión de logs y seguimiento de respuestas de los servicios para confirmar la integración correcta.</t>
+  </si>
+  <si>
+    <t>Entre el 25 y el 29 de octubre de 2024, se realizó un trabajo exhaustivo para revisar, modificar y probar los servicios principales de la app. El enfoque inicial fue la identificación de áreas problemáticas, seguido de ajustes en el código y pruebas rigurosas para garantizar la correcta integración y eficiencia en los llamados a servicios como base de datos y autenticación móvil. El resultado fue un sistema más estable y funcional.</t>
+  </si>
+  <si>
+    <t>Realizar un examen práctico para evaluar lo aprendido y Revisión los resultados y recibir retroalimentación.</t>
+  </si>
+  <si>
+    <t>Revisión de los problemas actuales en el sistema de autenticación.</t>
+  </si>
+  <si>
+    <t>Análisis de los tiempos de respuesta actuales al obtener datos.</t>
+  </si>
+  <si>
+    <t>Identificación de eventos clave que dispararán las alertas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levantamiento de requerimientos </t>
+  </si>
+  <si>
+    <t>Listado de las funcionalidades adicionales deseadas</t>
+  </si>
+  <si>
+    <t>Listado de mejoras específicas como paginación o filtros avanzados.</t>
+  </si>
+  <si>
+    <t>Implementación de mejoras en el login, optimizando la seguridad y la experiencia del usuario.</t>
+  </si>
+  <si>
+    <t>Pruebas preliminares para garantizar que el login funcione correctamente.</t>
+  </si>
+  <si>
+    <t>Modificación del sistema de autenticación para agregar validaciones adicionales implementado nuevos metodos de seguridad.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desarrollo de alertas relacionadas con el ingreso de resultados en operaciones</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Configuración de un sistema de notificaciones dentro de la app.</t>
+  </si>
+  <si>
+    <t>Pruebas iniciales para validar que las alertas se envíen correctamente.</t>
+  </si>
+  <si>
+    <t>Especificación del formato de las alertas (push, notificaciones en app, correos) ydeterminación de la prioridad  de las alertas.</t>
+  </si>
+  <si>
+    <t>Análisis del rendimiento de la carga de datos y detección de áreas críticas.</t>
+  </si>
+  <si>
+    <t>Revisión de los tiempos actuales de carga de datos en distintas secciones de la app.</t>
+  </si>
+  <si>
+    <t>Comparativa con métricas de rendimiento esperadas.</t>
+  </si>
+  <si>
+    <t>Actualización de consultas a la base de datos para reducir tiempos de respuesta.</t>
+  </si>
+  <si>
+    <t>Verificación del impacto de los cambios mediante pruebas de rendimiento.</t>
+  </si>
+  <si>
+    <t>Ejecución de pruebas sobre las mejoras en el login, alertas y carga de datos.</t>
+  </si>
+  <si>
+    <t>Registro de los errores detectados y los pasos para solucionarlos.</t>
+  </si>
+  <si>
+    <t>Actualización de la documentación técnica del proyecto.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimización de los procesos de carga de datos, mejorando la velocidad y eficiencia.</t>
+    </r>
+  </si>
+  <si>
+    <t>Documentación de los resultados obtenidos en las pruebas realizadas.</t>
+  </si>
+  <si>
+    <t>En esta fase se trabajó en el levantamiento de requerimientos funcionales para el login, la obtención de datos y las alertas, identificando necesidades clave y definiendo mejoras específicas. Se realizaron ajustes en el código para optimizar el sistema, incluyendo mejoras en la seguridad del login, desarrollo de alertas funcionales y optimización de la carga de datos para mejorar la experiencia del usuario.
+Además, se llevaron a cabo pruebas exhaustivas para validar los cambios implementados, asegurando la compatibilidad en distintos dispositivos. Los resultados obtenidos fueron documentados, dejando un registro claro de los avances, errores corregidos y mejoras realizadas, con el objetivo de garantizar un funcionamiento eficiente y preparar el sistema para futuros desarrollos.</t>
+  </si>
+  <si>
+    <t>Ajustes en la configuración de la app en Android Studio.</t>
+  </si>
+  <si>
+    <t>Modificación del código para corregir errores previos.</t>
+  </si>
+  <si>
+    <t>Agregado de librerías faltantes para completar dependencias.</t>
+  </si>
+  <si>
+    <t>Configuración inicial para la integración en Android Studio.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Análisis del código fuente para identificar redundancias y áreas de mejora.</t>
+    </r>
+  </si>
+  <si>
+    <t>Identificación de ajustes necesarios y planeación de las modificaciones.</t>
+  </si>
+  <si>
+    <t>Identificar problemas comunes reportados dado la actualización en Android Studio.</t>
+  </si>
+  <si>
+    <t>Identificación de las partes de la app que requieren modificaciones inmediatas</t>
+  </si>
+  <si>
+    <t>Crear un plan de acción para implementar los ajustes necesarios y establecer prioridades.</t>
+  </si>
+  <si>
+    <t>Identificación de bloques de código repetidos o innecesarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identificación de áreas que podrían complicar futuras actualizaciones.</t>
+  </si>
+  <si>
+    <t>Configuración de todas las librerías necesarias en Android Studio.</t>
+  </si>
+  <si>
+    <t>Verificación de las versiones necesarias del SDK para asegurar la compatibilidad.</t>
+  </si>
+  <si>
+    <t>Configuración del proyecto dentro de Android Studio para integrarlo correctamente.</t>
+  </si>
+  <si>
+    <t>Corrección de errores detectados en las dependencias agregadas.</t>
+  </si>
+  <si>
+    <t>Pruebas preliminares de construcción del APK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verificación final del código para evitar conflictos en la generación del APK.</t>
+  </si>
+  <si>
+    <t>Generación y obtención del APK.</t>
+  </si>
+  <si>
+    <t>Pruebas del APK en dispositivos de diferentes resoluciones.</t>
+  </si>
+  <si>
+    <t>Pruebas finales del APK en dispositivos adicionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Validación final de la funcionalidad y compatibilidad de la app.</t>
+  </si>
+  <si>
+    <t>Validación de las configuraciones iniciales del proyecto.</t>
+  </si>
+  <si>
+    <t>Modificación de los parámetros del proyecto para mejorar el rendimiento o la compatibilidad.</t>
+  </si>
+  <si>
+    <t>Identificación y resolución de posibles conflictos de configuraciones previas.</t>
+  </si>
+  <si>
+    <t>Modificación del código para resolver los problemas previos sin generar nuevos conflictos.</t>
+  </si>
+  <si>
+    <t>Revisión de las dependencias y asegurarse de que todas las librerías necesarias estén integradas.</t>
+  </si>
+  <si>
+    <t>Validación de que las nuevas librerías no generen conflictos con las versiones anteriores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisión general del proyecto para identificar los aspectos más relevantes a incluir en la documentación. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redacción  y finalizción sobre las secciones sobre la planificación del proyecto y las decisiones tomadas durante el desarrollo.</t>
+  </si>
+  <si>
+    <t>Identificación de problemas causados por las nuevas librerías agregadas.</t>
+  </si>
+  <si>
+    <t>Compilación preliminar del APK para identificar problemas.</t>
+  </si>
+  <si>
+    <t>Verificación de que el APK se pueda instalar correctamente en dispositivos Android.</t>
+  </si>
+  <si>
+    <t>Generar el APK listo para su distribución o prueba.</t>
+  </si>
+  <si>
+    <t>Extraer el archivo generado para realizar pruebas más profundas en dispositivos reales.</t>
+  </si>
+  <si>
+    <t>Asegurarse de que no haya errores o conflictos en el código que puedan impedir la correcta compilación.
+Validación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Instalar y ejecutar el APK en varios dispositivos con diferentes tamaños y resoluciones de pantalla.</t>
+  </si>
+  <si>
+    <t>Detectar problemas de compatibilidad en dispositivos concretos, como problemas de visualización o funcionalidad.</t>
+  </si>
+  <si>
+    <t>Realizar pruebas del APK en una variedad mayor de dispositivos, para garantizar la compatibilidad en diferentes modelos.</t>
+  </si>
+  <si>
+    <t>Confirmar que la app sea completamente compatible con las versiones de los sistemas operativos de los dispositivos de prueba.</t>
+  </si>
+  <si>
+    <t>Durante esta fase, se realizaron diversas actividades relacionadas con la mejora, prueba e integración de la aplicación móvil. A lo largo de varias jornadas, se identificaron áreas de mejora, se realizaron ajustes en el código, y se trabajó en la integración y compatibilidad de librerías y dependencias.
+Inicialmente, se analizó la retroalimentación obtenida de las pruebas previas y se identificaron los ajustes necesarios para optimizar la app. Esto incluyó la corrección de errores y la eliminación de redundancias en el código fuente. También se configuraron las herramientas de desarrollo, como Android Studio, y se implementaron librerías faltantes para garantizar el correcto funcionamiento de la app.
+Una vez que se implementaron las mejoras, se realizaron pruebas preliminares del APK en diversos dispositivos Android, verificando la compatibilidad y el rendimiento en diferentes resoluciones de pantalla. A lo largo de estas pruebas, se detectaron y corrigieron errores menores relacionados con las dependencias y la compatibilidad de versiones de las librerías. Se tomaron medidas adicionales para garantizar la estabilidad de la app, y se realizó la generación final del APK.
+En los últimos días de la fase, se ejecutaron pruebas finales de la app en dispositivos adicionales, validando la funcionalidad y asegurando la compatibilidad de la app en una variedad de dispositivos. Finalmente, se completó la fase con la validación total de la app, dejando el proyecto en una versión estable y optimizada, lista para su distribución o siguientes etapas de desarrollo.</t>
+  </si>
+  <si>
+    <t>Identificación de problemas de compatibilidad en dispositivos específicos.</t>
+  </si>
+  <si>
+    <t>Realización de un análisis exhaustivo de todos los aspectos del proyecto, incluidos los procesos de desarrollo, optimizaciones y cambios implementados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Determinación de los elementos más importantes que deben ser incluidos en la documentación,</t>
+  </si>
+  <si>
+    <t>edacción de las secciones que cubren el enfoque general del proyecto, los objetivos planteados y las fases del desarrollo.</t>
+  </si>
+  <si>
+    <t>Elaboración y revisión de las secciones finales de la documentación, asegurando que toda la información esté clara, completa y lista para ser entregada.</t>
+  </si>
+  <si>
+    <t>Revisión de la infraestructura de redes actual. Identificación de  equipos de red y protocolos utilizados.</t>
+  </si>
+  <si>
+    <t>Inspección detallada de los equipos de red existentes, como routers, switches y servidores.</t>
+  </si>
+  <si>
+    <t>Evaluación de los dispositivos y protocolos de comunicación empleados en la infraestructura, verificando su compatibilidad y capacidad.</t>
+  </si>
+  <si>
+    <t>mplementación de herramientas de monitoreo para evaluar el rendimiento de la red, como el ancho de banda, latencia y posibles cuellos de botella.</t>
+  </si>
+  <si>
+    <t>Análisis de los datos recolectados para identificar posibles problemas de rendimiento o de configuración en la red.</t>
+  </si>
+  <si>
+    <t>Realización de cambios necesarios en la configuración de equipos de red y ajustes de protocolos para mejorar el rendimiento y la seguridad.</t>
+  </si>
+  <si>
+    <t>Implementación de mejoras en la infraestructura de redes.</t>
+  </si>
+  <si>
+    <t>Análisis de rendimiento de la red mediante herramientas de monitoreo.</t>
+  </si>
+  <si>
+    <t>Durante los días 21 y 22 de noviembre, la fase de revisión y mejora de la infraestructura de redes se centró en evaluar el estado actual de la red, identificar los equipos y protocolos utilizados, y analizar el rendimiento general mediante herramientas de monitoreo. Se identificaron áreas problemáticas, como posibles cuellos de botella o deficiencias en el rendimiento. A partir de este análisis, se implementaron mejoras en la infraestructura, realizando ajustes tanto en los equipos como en los protocolos utilizados para optimizar el rendimiento, aumentar la seguridad y mejorar la eficiencia general de la red.</t>
+  </si>
+  <si>
+    <t>Inspección de los parámetros de configuración existentes, incluyendo seguridad, rendimiento y acceso.</t>
+  </si>
+  <si>
+    <t>Verificación de los protocolos de enrutamiento y de comunicación, asegurando que estén configurados correctamente para evitar conflictos o pérdida de datos.</t>
+  </si>
+  <si>
+    <t>Configuración avanzada del router para optimizar la seguridad y el rendimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Revisión y preparación final de la documentación sobre la mejora y actualizción del aplicativo movil .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entrega de la documentación a los responsables del seguimiento del proyecto sobre el aplicativo movil.</t>
+  </si>
+  <si>
+    <t>Resolución de dudas y comentarios, y ajustes finales basados en las sugerencias recibidas.</t>
+  </si>
+  <si>
+    <t>Revisión detallada de la documentación.
+Revisión de las mejoras implementadas.
+Verificación de la claridad y precisión de la información.</t>
+  </si>
+  <si>
+    <t>Proceso de entrega de la documentación finalizada a los responsables del proyecto, asegurando que reciban una versión completa y precisa de todas las actualizaciones.</t>
+  </si>
+  <si>
+    <t>Revisión de comentarios  y sugerencias, Implementación de ajustes finales y Cierre de la fase de documentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El día 25 de noviembre, se dedicó a realizar una configuración avanzada del router para optimizar tanto la seguridad como el rendimiento de la red. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El 26 de noviembre se centró en la revisión y preparación final de la documentación relacionada con las mejoras y actualizaciones del aplicativo móvil. Se verificó que toda la información estuviera detallada y clara, cubriendo todos los aspectos técnicos y cambios realizados. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,6 +1633,14 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1149,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1177,6 +1753,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,11 +1811,100 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1542,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5508007A-8F80-4A7F-BD52-B55F5D6EC2B9}">
   <dimension ref="C1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,52 +2238,52 @@
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="3:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1641,22 +2315,22 @@
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="17">
         <v>45559</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="17">
         <v>45562</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="17">
         <v>45559</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="18">
         <v>0.58333333333333337</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -1665,72 +2339,72 @@
       <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="6">
         <v>6</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="6">
         <v>6</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="17">
         <v>45565</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="19">
         <v>45588</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="17">
         <v>45565</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="18">
         <v>0.58333333333333337</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -1739,267 +2413,267 @@
       <c r="J11" s="6">
         <v>6</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="16">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J12" s="6">
         <v>6</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="6">
         <v>6</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="6">
         <v>6</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="6" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="6">
         <v>6</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="13"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="6">
         <v>6</v>
       </c>
-      <c r="K18" s="13"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="6">
         <v>6</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="6">
         <v>6</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="6">
         <v>6</v>
       </c>
-      <c r="K21" s="13"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="13"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
-      <c r="K23" s="13"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="3:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="13"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="3:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
-      <c r="K25" s="13"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="7" t="s">
         <v>70</v>
       </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
-      <c r="K26" s="13"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
-      <c r="K27" s="13"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="17">
         <v>45590</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="17">
         <v>45594</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="17">
         <v>45590</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="18">
         <v>0.58333333333333337</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -2008,57 +2682,57 @@
       <c r="J28" s="6">
         <v>6</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="16">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="6" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
-      <c r="K29" s="13"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="6">
         <v>6</v>
       </c>
-      <c r="K30" s="13"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="17">
         <v>45596</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="17">
         <v>45604</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="17">
         <v>45596</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="18">
         <v>0.58333333333333337</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -2067,132 +2741,132 @@
       <c r="J31" s="6">
         <v>4</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="13"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="13"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="6">
         <v>2</v>
       </c>
-      <c r="K34" s="13"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="6">
         <v>3</v>
       </c>
-      <c r="K35" s="13"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="6">
         <v>3</v>
       </c>
-      <c r="K36" s="13"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
-      <c r="K37" s="13"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J38" s="6">
         <v>2</v>
       </c>
-      <c r="K38" s="13"/>
+      <c r="K38" s="16"/>
     </row>
     <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="17">
         <v>45607</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="17">
         <v>45615</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="17">
         <v>45607</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="18">
         <v>0.58333333333333337</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -2201,237 +2875,237 @@
       <c r="J39" s="6">
         <v>2</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="16">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="6">
         <v>4</v>
       </c>
-      <c r="K40" s="13"/>
+      <c r="K40" s="16"/>
     </row>
     <row r="41" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="7" t="s">
         <v>50</v>
       </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
-      <c r="K41" s="13"/>
+      <c r="K41" s="16"/>
     </row>
     <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J42" s="6">
         <v>4</v>
       </c>
-      <c r="K42" s="13"/>
+      <c r="K42" s="16"/>
     </row>
     <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="13"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J44" s="6">
         <v>3</v>
       </c>
-      <c r="K44" s="13"/>
+      <c r="K44" s="16"/>
     </row>
     <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="13"/>
+      <c r="K45" s="16"/>
     </row>
     <row r="46" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J46" s="6">
         <v>5</v>
       </c>
-      <c r="K46" s="13"/>
+      <c r="K46" s="16"/>
     </row>
     <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="13"/>
+      <c r="K47" s="16"/>
     </row>
     <row r="48" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="13"/>
+      <c r="K48" s="16"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="13"/>
+      <c r="K49" s="16"/>
     </row>
     <row r="50" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J50" s="6">
         <v>4</v>
       </c>
-      <c r="K50" s="13"/>
+      <c r="K50" s="16"/>
     </row>
     <row r="51" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J51" s="6">
         <v>2</v>
       </c>
-      <c r="K51" s="13"/>
+      <c r="K51" s="16"/>
     </row>
     <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J52" s="6">
         <v>4</v>
       </c>
-      <c r="K52" s="13"/>
+      <c r="K52" s="16"/>
     </row>
     <row r="53" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J53" s="6">
         <v>2</v>
       </c>
-      <c r="K53" s="13"/>
+      <c r="K53" s="16"/>
     </row>
     <row r="54" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="23">
         <v>45616</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="23">
         <v>45616</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="23">
         <v>45616</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="25">
         <v>0.58333333333333337</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -2440,42 +3114,42 @@
       <c r="J54" s="6">
         <v>2</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="3:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="19"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
       <c r="I55" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J55" s="6">
         <v>4</v>
       </c>
-      <c r="K55" s="19"/>
+      <c r="K55" s="22"/>
     </row>
     <row r="56" spans="3:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="17">
         <v>45617</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="17">
         <v>45618</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="17">
         <v>45618</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="18">
         <v>0.58333333333333337</v>
       </c>
       <c r="I56" s="6" t="s">
@@ -2484,39 +3158,39 @@
       <c r="J56" s="6">
         <v>3</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="3:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="6" t="s">
         <v>65</v>
       </c>
       <c r="J57" s="6">
         <v>3</v>
       </c>
-      <c r="K57" s="13"/>
+      <c r="K57" s="16"/>
     </row>
     <row r="58" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="6">
         <v>6</v>
       </c>
-      <c r="K58" s="13"/>
+      <c r="K58" s="16"/>
     </row>
     <row r="59" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
@@ -2548,22 +3222,22 @@
       </c>
     </row>
     <row r="60" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="23">
         <v>45622</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="23">
         <v>45622</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="23">
         <v>45622</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G60" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="25">
         <v>0.58333333333333337</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -2572,50 +3246,50 @@
       <c r="J60" s="2">
         <v>3</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C61" s="18"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
-      <c r="K61" s="18"/>
+      <c r="K61" s="21"/>
     </row>
     <row r="62" spans="3:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="19"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
       <c r="I62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
       </c>
-      <c r="K62" s="19"/>
+      <c r="K62" s="22"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="5">
         <f>SUM(J7:J62)</f>
         <v>240</v>
@@ -2690,4 +3364,2365 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB14C4-DC0E-4802-9506-F4694C0E8E07}">
+  <dimension ref="C1:R105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E101" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="11" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="3:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="3:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="17">
+        <v>45559</v>
+      </c>
+      <c r="E6" s="17">
+        <v>45562</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H6" s="17">
+        <v>45559</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="39">
+        <v>6</v>
+      </c>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="6">
+        <v>3</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="R7" s="33"/>
+    </row>
+    <row r="8" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17">
+        <v>45560</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="6">
+        <v>3</v>
+      </c>
+      <c r="M8" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="6">
+        <v>3</v>
+      </c>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="3">
+        <v>45561</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="6">
+        <v>6</v>
+      </c>
+      <c r="M10" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="3">
+        <v>45562</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="6">
+        <v>6</v>
+      </c>
+      <c r="M11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="23">
+        <v>45565</v>
+      </c>
+      <c r="E12" s="51">
+        <v>45588</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H12" s="23">
+        <v>45565</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" s="6">
+        <v>4</v>
+      </c>
+      <c r="M12" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="21"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="6">
+        <v>2</v>
+      </c>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="21"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="23">
+        <v>45566</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="6">
+        <v>3</v>
+      </c>
+      <c r="M14" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="21"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="40"/>
+      <c r="L15" s="6">
+        <v>3</v>
+      </c>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="21"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="23">
+        <v>45567</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="40"/>
+      <c r="L16" s="6">
+        <v>4</v>
+      </c>
+      <c r="M16" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="21"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="40"/>
+      <c r="L17" s="6">
+        <v>2</v>
+      </c>
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="21"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23">
+        <v>45568</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="6">
+        <v>3</v>
+      </c>
+      <c r="M18" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="21"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="40"/>
+      <c r="L19" s="6">
+        <v>3</v>
+      </c>
+      <c r="M19" s="39"/>
+    </row>
+    <row r="20" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="21"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23">
+        <v>45569</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="6">
+        <v>3</v>
+      </c>
+      <c r="M20" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="21"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="40"/>
+      <c r="L21" s="6">
+        <v>3</v>
+      </c>
+      <c r="M21" s="39"/>
+    </row>
+    <row r="22" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="21"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23">
+        <v>45572</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="6">
+        <v>4</v>
+      </c>
+      <c r="M22" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="21"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="40"/>
+      <c r="L23" s="6">
+        <v>2</v>
+      </c>
+      <c r="M23" s="39"/>
+    </row>
+    <row r="24" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="21"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23">
+        <v>45573</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="6">
+        <v>4</v>
+      </c>
+      <c r="M24" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="21"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="6">
+        <v>2</v>
+      </c>
+      <c r="M25" s="39"/>
+    </row>
+    <row r="26" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="21"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="23">
+        <v>45574</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="6">
+        <v>3</v>
+      </c>
+      <c r="M26" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="21"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="6">
+        <v>3</v>
+      </c>
+      <c r="M27" s="39"/>
+    </row>
+    <row r="28" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" s="21"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="3">
+        <v>45575</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="6">
+        <v>6</v>
+      </c>
+      <c r="M28" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C29" s="21"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="3">
+        <v>45579</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="6">
+        <v>6</v>
+      </c>
+      <c r="M29" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="21"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="23">
+        <v>45580</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="6">
+        <v>4</v>
+      </c>
+      <c r="M30" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="21"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="40"/>
+      <c r="L31" s="6">
+        <v>2</v>
+      </c>
+      <c r="M31" s="39"/>
+    </row>
+    <row r="32" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="21"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="23">
+        <v>45581</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="6">
+        <v>4</v>
+      </c>
+      <c r="M32" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="21"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="40"/>
+      <c r="L33" s="6">
+        <v>2</v>
+      </c>
+      <c r="M33" s="39"/>
+    </row>
+    <row r="34" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="21"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="3">
+        <v>45582</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="40"/>
+      <c r="L34" s="6">
+        <v>6</v>
+      </c>
+      <c r="M34" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C35" s="21"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="3">
+        <v>45583</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="40"/>
+      <c r="L35" s="6">
+        <v>6</v>
+      </c>
+      <c r="M35" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="21"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="23">
+        <v>45586</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="K36" s="40"/>
+      <c r="L36" s="6">
+        <v>3</v>
+      </c>
+      <c r="M36" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="21"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" s="40"/>
+      <c r="L37" s="6">
+        <v>3</v>
+      </c>
+      <c r="M37" s="39"/>
+    </row>
+    <row r="38" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C38" s="21"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="3">
+        <v>45580</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38" s="40"/>
+      <c r="L38" s="6">
+        <v>6</v>
+      </c>
+      <c r="M38" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="21"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="17">
+        <v>45588</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="K39" s="40"/>
+      <c r="L39" s="6">
+        <v>4</v>
+      </c>
+      <c r="M39" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="22"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="40"/>
+      <c r="L40" s="6">
+        <v>2</v>
+      </c>
+      <c r="M40" s="39"/>
+    </row>
+    <row r="41" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="17">
+        <v>45590</v>
+      </c>
+      <c r="E41" s="17">
+        <v>45594</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H41" s="17">
+        <v>45590</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="L41" s="6">
+        <v>2</v>
+      </c>
+      <c r="M41" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="40"/>
+      <c r="L42" s="6">
+        <v>2</v>
+      </c>
+      <c r="M42" s="39"/>
+    </row>
+    <row r="43" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43" s="40"/>
+      <c r="L43" s="6">
+        <v>2</v>
+      </c>
+      <c r="M43" s="39"/>
+    </row>
+    <row r="44" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="17">
+        <v>45593</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44" s="40"/>
+      <c r="L44" s="6">
+        <v>2</v>
+      </c>
+      <c r="M44" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="K45" s="40"/>
+      <c r="L45" s="6">
+        <v>2</v>
+      </c>
+      <c r="M45" s="39"/>
+    </row>
+    <row r="46" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" s="40"/>
+      <c r="L46" s="6">
+        <v>2</v>
+      </c>
+      <c r="M46" s="39"/>
+    </row>
+    <row r="47" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="17">
+        <v>45594</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="K47" s="40"/>
+      <c r="L47" s="6">
+        <v>2</v>
+      </c>
+      <c r="M47" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K48" s="40"/>
+      <c r="L48" s="6">
+        <v>2</v>
+      </c>
+      <c r="M48" s="39"/>
+    </row>
+    <row r="49" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K49" s="40"/>
+      <c r="L49" s="6">
+        <v>2</v>
+      </c>
+      <c r="M49" s="39"/>
+    </row>
+    <row r="50" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="17">
+        <v>45596</v>
+      </c>
+      <c r="E50" s="17">
+        <v>45604</v>
+      </c>
+      <c r="F50" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G50" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H50" s="17">
+        <v>45596</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J50" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
+      <c r="M50" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="40"/>
+      <c r="L51" s="6">
+        <v>1</v>
+      </c>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52" s="40"/>
+      <c r="L52" s="6">
+        <v>1</v>
+      </c>
+      <c r="M52" s="16"/>
+    </row>
+    <row r="53" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="K53" s="40"/>
+      <c r="L53" s="6">
+        <v>1</v>
+      </c>
+      <c r="M53" s="16"/>
+    </row>
+    <row r="54" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="K54" s="40"/>
+      <c r="L54" s="6">
+        <v>1</v>
+      </c>
+      <c r="M54" s="16"/>
+    </row>
+    <row r="55" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="K55" s="40"/>
+      <c r="L55" s="6">
+        <v>1</v>
+      </c>
+      <c r="M55" s="16"/>
+    </row>
+    <row r="56" spans="3:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="17">
+        <v>45602</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="K56" s="40"/>
+      <c r="L56" s="6">
+        <v>2</v>
+      </c>
+      <c r="M56" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K57" s="40"/>
+      <c r="L57" s="6">
+        <v>1</v>
+      </c>
+      <c r="M57" s="16"/>
+    </row>
+    <row r="58" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="K58" s="40"/>
+      <c r="L58" s="6">
+        <v>2</v>
+      </c>
+      <c r="M58" s="16"/>
+    </row>
+    <row r="59" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K59" s="40"/>
+      <c r="L59" s="6">
+        <v>1</v>
+      </c>
+      <c r="M59" s="16"/>
+    </row>
+    <row r="60" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="16"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="17">
+        <v>45603</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="J60" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="K60" s="40"/>
+      <c r="L60" s="6">
+        <v>2</v>
+      </c>
+      <c r="M60" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="K61" s="40"/>
+      <c r="L61" s="6">
+        <v>1</v>
+      </c>
+      <c r="M61" s="16"/>
+    </row>
+    <row r="62" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C62" s="16"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="J62" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="K62" s="40"/>
+      <c r="L62" s="6">
+        <v>2</v>
+      </c>
+      <c r="M62" s="16"/>
+    </row>
+    <row r="63" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="K63" s="40"/>
+      <c r="L63" s="6">
+        <v>1</v>
+      </c>
+      <c r="M63" s="16"/>
+    </row>
+    <row r="64" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="17">
+        <v>45604</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="40"/>
+      <c r="L64" s="6">
+        <v>3</v>
+      </c>
+      <c r="M64" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C65" s="16"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="J65" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="K65" s="40"/>
+      <c r="L65" s="6">
+        <v>2</v>
+      </c>
+      <c r="M65" s="16"/>
+    </row>
+    <row r="66" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="K66" s="40"/>
+      <c r="L66" s="6">
+        <v>1</v>
+      </c>
+      <c r="M66" s="16"/>
+    </row>
+    <row r="67" spans="3:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="17">
+        <v>45607</v>
+      </c>
+      <c r="E67" s="17">
+        <v>45615</v>
+      </c>
+      <c r="F67" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G67" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H67" s="17">
+        <v>45607</v>
+      </c>
+      <c r="I67" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="K67" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="L67" s="6">
+        <v>2</v>
+      </c>
+      <c r="M67" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="J68" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="K68" s="40"/>
+      <c r="L68" s="6">
+        <v>2</v>
+      </c>
+      <c r="M68" s="16"/>
+    </row>
+    <row r="69" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C69" s="16"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K69" s="40"/>
+      <c r="L69" s="6">
+        <v>2</v>
+      </c>
+      <c r="M69" s="16"/>
+    </row>
+    <row r="70" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="17">
+        <v>45608</v>
+      </c>
+      <c r="I70" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="J70" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K70" s="40"/>
+      <c r="L70" s="6">
+        <v>2</v>
+      </c>
+      <c r="M70" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C71" s="16"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="K71" s="40"/>
+      <c r="L71" s="6">
+        <v>1</v>
+      </c>
+      <c r="M71" s="16"/>
+    </row>
+    <row r="72" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="K72" s="40"/>
+      <c r="L72" s="6">
+        <v>1</v>
+      </c>
+      <c r="M72" s="16"/>
+    </row>
+    <row r="73" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C73" s="16"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="K73" s="40"/>
+      <c r="L73" s="6">
+        <v>1</v>
+      </c>
+      <c r="M73" s="16"/>
+    </row>
+    <row r="74" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K74" s="40"/>
+      <c r="L74" s="6">
+        <v>1</v>
+      </c>
+      <c r="M74" s="16"/>
+    </row>
+    <row r="75" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="16"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="17">
+        <v>45609</v>
+      </c>
+      <c r="I75" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J75" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="K75" s="40"/>
+      <c r="L75" s="39">
+        <v>2</v>
+      </c>
+      <c r="M75" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="K76" s="40"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="16"/>
+    </row>
+    <row r="77" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C77" s="16"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="K77" s="40"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="16"/>
+    </row>
+    <row r="78" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="J78" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="K78" s="40"/>
+      <c r="L78" s="6">
+        <v>2</v>
+      </c>
+      <c r="M78" s="16"/>
+    </row>
+    <row r="79" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="16"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="J79" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="K79" s="40"/>
+      <c r="L79" s="6">
+        <v>1</v>
+      </c>
+      <c r="M79" s="16"/>
+    </row>
+    <row r="80" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="K80" s="40"/>
+      <c r="L80" s="6">
+        <v>1</v>
+      </c>
+      <c r="M80" s="16"/>
+    </row>
+    <row r="81" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="17">
+        <v>45610</v>
+      </c>
+      <c r="I81" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="J81" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="K81" s="40"/>
+      <c r="L81" s="6">
+        <v>3</v>
+      </c>
+      <c r="M81" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J82" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="K82" s="40"/>
+      <c r="L82" s="6">
+        <v>2</v>
+      </c>
+      <c r="M82" s="16"/>
+    </row>
+    <row r="83" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K83" s="40"/>
+      <c r="L83" s="6">
+        <v>1</v>
+      </c>
+      <c r="M83" s="16"/>
+    </row>
+    <row r="84" spans="3:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="17">
+        <v>45611</v>
+      </c>
+      <c r="I84" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J84" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="K84" s="40"/>
+      <c r="L84" s="6">
+        <v>3</v>
+      </c>
+      <c r="M84" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C85" s="16"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="J85" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="K85" s="40"/>
+      <c r="L85" s="6">
+        <v>2</v>
+      </c>
+      <c r="M85" s="16"/>
+    </row>
+    <row r="86" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="K86" s="40"/>
+      <c r="L86" s="6">
+        <v>1</v>
+      </c>
+      <c r="M86" s="16"/>
+    </row>
+    <row r="87" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C87" s="16"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="17">
+        <v>45614</v>
+      </c>
+      <c r="I87" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="J87" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="K87" s="40"/>
+      <c r="L87" s="6">
+        <v>4</v>
+      </c>
+      <c r="M87" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C88" s="16"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="J88" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K88" s="40"/>
+      <c r="L88" s="6">
+        <v>2</v>
+      </c>
+      <c r="M88" s="16"/>
+    </row>
+    <row r="89" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="17">
+        <v>45615</v>
+      </c>
+      <c r="I89" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="J89" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="K89" s="40"/>
+      <c r="L89" s="6">
+        <v>4</v>
+      </c>
+      <c r="M89" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C90" s="16"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="J90" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="K90" s="40"/>
+      <c r="L90" s="6">
+        <v>2</v>
+      </c>
+      <c r="M90" s="16"/>
+    </row>
+    <row r="91" spans="3:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="C91" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="17">
+        <v>45616</v>
+      </c>
+      <c r="E91" s="17">
+        <v>45616</v>
+      </c>
+      <c r="F91" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G91" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H91" s="17">
+        <v>45616</v>
+      </c>
+      <c r="I91" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="J91" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K91" s="39"/>
+      <c r="L91" s="6">
+        <v>2</v>
+      </c>
+      <c r="M91" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="K92" s="39"/>
+      <c r="L92" s="6">
+        <v>1</v>
+      </c>
+      <c r="M92" s="16"/>
+    </row>
+    <row r="93" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="16"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="J93" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K93" s="39"/>
+      <c r="L93" s="6">
+        <v>1</v>
+      </c>
+      <c r="M93" s="16"/>
+    </row>
+    <row r="94" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="K94" s="39"/>
+      <c r="L94" s="6">
+        <v>2</v>
+      </c>
+      <c r="M94" s="16"/>
+    </row>
+    <row r="95" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="17">
+        <v>45617</v>
+      </c>
+      <c r="E95" s="17">
+        <v>45618</v>
+      </c>
+      <c r="F95" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G95" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H95" s="17">
+        <v>45617</v>
+      </c>
+      <c r="I95" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="J95" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K95" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="L95" s="6">
+        <v>2</v>
+      </c>
+      <c r="M95" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K96" s="47"/>
+      <c r="L96" s="6">
+        <v>1</v>
+      </c>
+      <c r="M96" s="21"/>
+    </row>
+    <row r="97" spans="3:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="16"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J97" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="K97" s="47"/>
+      <c r="L97" s="6">
+        <v>2</v>
+      </c>
+      <c r="M97" s="21"/>
+    </row>
+    <row r="98" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="16"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="K98" s="47"/>
+      <c r="L98" s="6">
+        <v>1</v>
+      </c>
+      <c r="M98" s="22"/>
+    </row>
+    <row r="99" spans="3:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="16"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="11">
+        <v>45618</v>
+      </c>
+      <c r="I99" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="J99" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="K99" s="47"/>
+      <c r="L99" s="6">
+        <v>6</v>
+      </c>
+      <c r="M99" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="23">
+        <v>45621</v>
+      </c>
+      <c r="E100" s="23">
+        <v>45621</v>
+      </c>
+      <c r="F100" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G100" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H100" s="23">
+        <v>45621</v>
+      </c>
+      <c r="I100" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="J100" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K100" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="L100" s="2">
+        <v>3</v>
+      </c>
+      <c r="M100" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="22"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K101" s="42"/>
+      <c r="L101" s="2">
+        <v>3</v>
+      </c>
+      <c r="M101" s="22"/>
+    </row>
+    <row r="102" spans="3:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="17">
+        <v>45622</v>
+      </c>
+      <c r="E102" s="17">
+        <v>45622</v>
+      </c>
+      <c r="F102" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G102" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H102" s="23">
+        <v>45622</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J102" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="K102" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="L102" s="2">
+        <v>3</v>
+      </c>
+      <c r="M102" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="C103" s="16"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J103" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="K103" s="21"/>
+      <c r="L103" s="2">
+        <v>1</v>
+      </c>
+      <c r="M103" s="16"/>
+    </row>
+    <row r="104" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C104" s="16"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K104" s="22"/>
+      <c r="L104" s="2">
+        <v>2</v>
+      </c>
+      <c r="M104" s="16"/>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C105" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12">
+        <f>SUM(L6:L104)</f>
+        <v>240</v>
+      </c>
+      <c r="M105" s="12">
+        <f>SUM(M6:M103)</f>
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="160">
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H102:H104"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K104"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="M95:M98"/>
+    <mergeCell ref="K95:K99"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="K91:K94"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="M84:M86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="M70:M74"/>
+    <mergeCell ref="K67:K90"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="L75:L77"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="M75:M80"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="H50:H55"/>
+    <mergeCell ref="C50:C66"/>
+    <mergeCell ref="D50:D66"/>
+    <mergeCell ref="E50:E66"/>
+    <mergeCell ref="F50:F66"/>
+    <mergeCell ref="G50:G66"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="K50:K66"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="M56:M59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="M60:M63"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I50:I55"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="H70:H74"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H75:H80"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="K41:K49"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C12:C40"/>
+    <mergeCell ref="D12:D40"/>
+    <mergeCell ref="E12:E40"/>
+    <mergeCell ref="F12:F40"/>
+    <mergeCell ref="G12:G40"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="F41:F49"/>
+    <mergeCell ref="G41:G49"/>
+    <mergeCell ref="C67:C90"/>
+    <mergeCell ref="D67:D90"/>
+    <mergeCell ref="E67:E90"/>
+    <mergeCell ref="F67:F90"/>
+    <mergeCell ref="G67:G90"/>
+    <mergeCell ref="C105:I105"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="F95:F99"/>
+    <mergeCell ref="G95:G99"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="F91:F94"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="K6:K11"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="M102:M104"/>
+    <mergeCell ref="M91:M94"/>
+    <mergeCell ref="G91:G94"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K40"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="I14:I15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I41 I44 I47 J52:J54">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Cronograma/Cronograma-Actividades_Herrera_V2.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A8272-4EE7-46D3-AAD4-B39D3C20432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58F601-005C-4291-A7FE-84575E6B557E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="5" r:id="rId1"/>
@@ -1332,9 +1332,6 @@
     <t>Pruebas iniciales para validar que las alertas se envíen correctamente.</t>
   </si>
   <si>
-    <t>Especificación del formato de las alertas (push, notificaciones en app, correos) ydeterminación de la prioridad  de las alertas.</t>
-  </si>
-  <si>
     <t>Análisis del rendimiento de la carga de datos y detección de áreas críticas.</t>
   </si>
   <si>
@@ -1592,6 +1589,9 @@
   </si>
   <si>
     <t xml:space="preserve">El 26 de noviembre se centró en la revisión y preparación final de la documentación relacionada con las mejoras y actualizaciones del aplicativo móvil. Se verificó que toda la información estuviera detallada y clara, cubriendo todos los aspectos técnicos y cambios realizados. </t>
+  </si>
+  <si>
+    <t>Especificación del formato de las alertas (push, notificaciones en app, correos) y determinación de la prioridad  de las alertas.</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1763,26 +1763,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1811,70 +1808,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1886,8 +1856,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2238,52 +2211,52 @@
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="3:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2315,22 +2288,22 @@
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="30">
         <v>45559</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="30">
         <v>45562</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="30">
         <v>45559</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="29">
         <v>0.58333333333333337</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -2339,72 +2312,72 @@
       <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="28">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="6">
         <v>6</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="6">
         <v>6</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="30">
         <v>45565</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="31">
         <v>45588</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="30">
         <v>45565</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="29">
         <v>0.58333333333333337</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2413,267 +2386,267 @@
       <c r="J11" s="6">
         <v>6</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="28">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J12" s="6">
         <v>6</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="6">
         <v>6</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="6">
         <v>6</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="6" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="6">
         <v>6</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="K16" s="16"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="6">
         <v>6</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="6">
         <v>6</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="6">
         <v>6</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="6">
         <v>6</v>
       </c>
-      <c r="K21" s="16"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="16"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
-      <c r="K23" s="16"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="3:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="16"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="3:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
-      <c r="K25" s="16"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="7" t="s">
         <v>70</v>
       </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
-      <c r="K26" s="16"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
-      <c r="K27" s="16"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="30">
         <v>45590</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="30">
         <v>45594</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="30">
         <v>45590</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="29">
         <v>0.58333333333333337</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -2682,57 +2655,57 @@
       <c r="J28" s="6">
         <v>6</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="28">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="6" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
-      <c r="K29" s="16"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="6">
         <v>6</v>
       </c>
-      <c r="K30" s="16"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="30">
         <v>45596</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="30">
         <v>45604</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="30">
         <v>45596</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="29">
         <v>0.58333333333333337</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -2741,132 +2714,132 @@
       <c r="J31" s="6">
         <v>4</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="28">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="16"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="16"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="6">
         <v>2</v>
       </c>
-      <c r="K34" s="16"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="6">
         <v>3</v>
       </c>
-      <c r="K35" s="16"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="6">
         <v>3</v>
       </c>
-      <c r="K36" s="16"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
-      <c r="K37" s="16"/>
+      <c r="K37" s="28"/>
     </row>
     <row r="38" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J38" s="6">
         <v>2</v>
       </c>
-      <c r="K38" s="16"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="30">
         <v>45607</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="30">
         <v>45615</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="30">
         <v>45607</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="29">
         <v>0.58333333333333337</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -2875,237 +2848,237 @@
       <c r="J39" s="6">
         <v>2</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="28">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
       <c r="I40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="6">
         <v>4</v>
       </c>
-      <c r="K40" s="16"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="7" t="s">
         <v>50</v>
       </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
-      <c r="K41" s="16"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J42" s="6">
         <v>4</v>
       </c>
-      <c r="K42" s="16"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="16"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J44" s="6">
         <v>3</v>
       </c>
-      <c r="K44" s="16"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="16"/>
+      <c r="K45" s="28"/>
     </row>
     <row r="46" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J46" s="6">
         <v>5</v>
       </c>
-      <c r="K46" s="16"/>
+      <c r="K46" s="28"/>
     </row>
     <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="16"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="16"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
       <c r="I49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="16"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J50" s="6">
         <v>4</v>
       </c>
-      <c r="K50" s="16"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J51" s="6">
         <v>2</v>
       </c>
-      <c r="K51" s="16"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J52" s="6">
         <v>4</v>
       </c>
-      <c r="K52" s="16"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
       <c r="I53" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J53" s="6">
         <v>2</v>
       </c>
-      <c r="K53" s="16"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="22">
         <v>45616</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>45616</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="22">
         <v>45616</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="24">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="24">
         <v>0.58333333333333337</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -3114,42 +3087,42 @@
       <c r="J54" s="6">
         <v>2</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="3:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="22"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J55" s="6">
         <v>4</v>
       </c>
-      <c r="K55" s="22"/>
+      <c r="K55" s="21"/>
     </row>
     <row r="56" spans="3:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="30">
         <v>45617</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="30">
         <v>45618</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="30">
         <v>45618</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="29">
         <v>0.58333333333333337</v>
       </c>
       <c r="I56" s="6" t="s">
@@ -3158,39 +3131,39 @@
       <c r="J56" s="6">
         <v>3</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="28">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="3:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
       <c r="I57" s="6" t="s">
         <v>65</v>
       </c>
       <c r="J57" s="6">
         <v>3</v>
       </c>
-      <c r="K57" s="16"/>
+      <c r="K57" s="28"/>
     </row>
     <row r="58" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="16"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
       <c r="I58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="6">
         <v>6</v>
       </c>
-      <c r="K58" s="16"/>
+      <c r="K58" s="28"/>
     </row>
     <row r="59" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
@@ -3222,22 +3195,22 @@
       </c>
     </row>
     <row r="60" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="22">
         <v>45622</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>45622</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="22">
         <v>45622</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="24">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H60" s="24">
         <v>0.58333333333333337</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -3246,50 +3219,50 @@
       <c r="J60" s="2">
         <v>3</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K60" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C61" s="21"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
-      <c r="K61" s="21"/>
+      <c r="K61" s="20"/>
     </row>
     <row r="62" spans="3:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="22"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
       <c r="I62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
       </c>
-      <c r="K62" s="22"/>
+      <c r="K62" s="21"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
       <c r="J63" s="5">
         <f>SUM(J7:J62)</f>
         <v>240</v>
@@ -3301,49 +3274,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="K31:K38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="H31:H38"/>
-    <mergeCell ref="D39:D53"/>
-    <mergeCell ref="E39:E53"/>
-    <mergeCell ref="F39:F53"/>
-    <mergeCell ref="G39:G53"/>
-    <mergeCell ref="H39:H53"/>
-    <mergeCell ref="C39:C53"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="C11:C27"/>
-    <mergeCell ref="D11:D27"/>
-    <mergeCell ref="E11:E27"/>
-    <mergeCell ref="F11:F27"/>
-    <mergeCell ref="G11:G27"/>
-    <mergeCell ref="H11:H27"/>
-    <mergeCell ref="K11:K27"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
     <mergeCell ref="C4:K5"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="C63:I63"/>
@@ -3360,6 +3290,49 @@
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="K28:K30"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="C11:C27"/>
+    <mergeCell ref="D11:D27"/>
+    <mergeCell ref="E11:E27"/>
+    <mergeCell ref="F11:F27"/>
+    <mergeCell ref="G11:G27"/>
+    <mergeCell ref="H11:H27"/>
+    <mergeCell ref="K11:K27"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="C39:C53"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="K31:K38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="H31:H38"/>
+    <mergeCell ref="D39:D53"/>
+    <mergeCell ref="E39:E53"/>
+    <mergeCell ref="F39:F53"/>
+    <mergeCell ref="G39:G53"/>
+    <mergeCell ref="H39:H53"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="K56:K58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3370,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB14C4-DC0E-4802-9506-F4694C0E8E07}">
   <dimension ref="C1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E101" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,66 +3356,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="3:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="29" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="3:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="3:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -3480,115 +3453,115 @@
       </c>
     </row>
     <row r="6" spans="3:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="30">
         <v>45559</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="30">
         <v>45562</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="30">
         <v>45559</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="28" t="s">
         <v>138</v>
       </c>
       <c r="L6" s="6">
         <v>3</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="36">
         <v>6</v>
       </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="35" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="40"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="6">
         <v>3</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="R7" s="33"/>
+      <c r="M7" s="36"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17">
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30">
         <v>45560</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="36" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="6">
         <v>3</v>
       </c>
-      <c r="M9" s="39"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="3">
         <v>45561</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="6">
         <v>6</v>
       </c>
@@ -3597,21 +3570,21 @@
       </c>
     </row>
     <row r="11" spans="3:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="3">
         <v>45562</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="6">
         <v>6</v>
       </c>
@@ -3620,353 +3593,353 @@
       </c>
     </row>
     <row r="12" spans="3:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>45565</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="41">
         <v>45588</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>45565</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="28" t="s">
         <v>137</v>
       </c>
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="21"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="36" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="6">
         <v>2</v>
       </c>
-      <c r="M13" s="39"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="21"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="23">
+      <c r="C14" s="20"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="22">
         <v>45566</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="21"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="36" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="40"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="M15" s="39"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="21"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="23">
+      <c r="C16" s="20"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="22">
         <v>45567</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K16" s="40"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="6">
         <v>4</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="21"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="36" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="39"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="21"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23">
+      <c r="C18" s="20"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="22">
         <v>45568</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="40"/>
+      <c r="K18" s="28"/>
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="21"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="36" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="40"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="M19" s="39"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="21"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23">
+      <c r="C20" s="20"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="22">
         <v>45569</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="40"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="6">
         <v>3</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="21"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="36" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="40"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="6">
         <v>3</v>
       </c>
-      <c r="M21" s="39"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="21"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="23">
+      <c r="C22" s="20"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="22">
         <v>45572</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="40"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="6">
         <v>4</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="21"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="36" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="40"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="6">
         <v>2</v>
       </c>
-      <c r="M23" s="39"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="21"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="23">
+      <c r="C24" s="20"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="22">
         <v>45573</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="40"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="6">
         <v>4</v>
       </c>
-      <c r="M24" s="39">
+      <c r="M24" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="21"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="36" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K25" s="40"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="39"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="21"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="23">
+      <c r="C26" s="20"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="22">
         <v>45574</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="40"/>
+      <c r="K26" s="28"/>
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="39">
+      <c r="M26" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="21"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="34" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="K27" s="40"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="M27" s="39"/>
+      <c r="M27" s="36"/>
     </row>
     <row r="28" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C28" s="21"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="3">
         <v>45575</v>
       </c>
-      <c r="I28" s="36" t="s">
+      <c r="I28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J28" s="36" t="s">
+      <c r="J28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="40"/>
+      <c r="K28" s="28"/>
       <c r="L28" s="6">
         <v>6</v>
       </c>
@@ -3975,21 +3948,21 @@
       </c>
     </row>
     <row r="29" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="21"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="3">
         <v>45579</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K29" s="40"/>
+      <c r="K29" s="28"/>
       <c r="L29" s="6">
         <v>6</v>
       </c>
@@ -3998,91 +3971,91 @@
       </c>
     </row>
     <row r="30" spans="3:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="21"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="23">
+      <c r="C30" s="20"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="22">
         <v>45580</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="36" t="s">
+      <c r="J30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K30" s="40"/>
+      <c r="K30" s="28"/>
       <c r="L30" s="6">
         <v>4</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="21"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="36" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K31" s="40"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="6">
         <v>2</v>
       </c>
-      <c r="M31" s="39"/>
+      <c r="M31" s="36"/>
     </row>
     <row r="32" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="21"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="23">
+      <c r="C32" s="20"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="22">
         <v>45581</v>
       </c>
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K32" s="40"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="6">
         <v>4</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="21"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="37" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K33" s="40"/>
+      <c r="K33" s="28"/>
       <c r="L33" s="6">
         <v>2</v>
       </c>
-      <c r="M33" s="39"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="21"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="3">
         <v>45582</v>
       </c>
@@ -4092,7 +4065,7 @@
       <c r="J34" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K34" s="40"/>
+      <c r="K34" s="28"/>
       <c r="L34" s="6">
         <v>6</v>
       </c>
@@ -4101,21 +4074,21 @@
       </c>
     </row>
     <row r="35" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="21"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="3">
         <v>45583</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="37" t="s">
+      <c r="J35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="K35" s="40"/>
+      <c r="K35" s="28"/>
       <c r="L35" s="6">
         <v>6</v>
       </c>
@@ -4124,61 +4097,61 @@
       </c>
     </row>
     <row r="36" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="21"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="23">
+      <c r="C36" s="20"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="22">
         <v>45586</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="I36" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="K36" s="40"/>
+      <c r="K36" s="28"/>
       <c r="L36" s="6">
         <v>3</v>
       </c>
-      <c r="M36" s="39">
+      <c r="M36" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="21"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="36" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K37" s="40"/>
+      <c r="K37" s="28"/>
       <c r="L37" s="6">
         <v>3</v>
       </c>
-      <c r="M37" s="39"/>
+      <c r="M37" s="36"/>
     </row>
     <row r="38" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C38" s="21"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="3">
         <v>45580</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J38" s="37" t="s">
+      <c r="J38" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="K38" s="40"/>
+      <c r="K38" s="28"/>
       <c r="L38" s="6">
         <v>6</v>
       </c>
@@ -4187,1223 +4160,1223 @@
       </c>
     </row>
     <row r="39" spans="3:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="21"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="17">
+      <c r="C39" s="20"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="30">
         <v>45588</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="J39" s="37" t="s">
+      <c r="J39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K39" s="40"/>
+      <c r="K39" s="28"/>
       <c r="L39" s="6">
         <v>4</v>
       </c>
-      <c r="M39" s="39">
+      <c r="M39" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="22"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="37" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K40" s="40"/>
+      <c r="K40" s="28"/>
       <c r="L40" s="6">
         <v>2</v>
       </c>
-      <c r="M40" s="39"/>
+      <c r="M40" s="36"/>
     </row>
     <row r="41" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="30">
         <v>45590</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="30">
         <v>45594</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="30">
         <v>45590</v>
       </c>
-      <c r="I41" s="40" t="s">
+      <c r="I41" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="J41" s="36" t="s">
+      <c r="J41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="K41" s="28" t="s">
         <v>151</v>
       </c>
       <c r="L41" s="6">
         <v>2</v>
       </c>
-      <c r="M41" s="39">
+      <c r="M41" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="36" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K42" s="40"/>
+      <c r="K42" s="28"/>
       <c r="L42" s="6">
         <v>2</v>
       </c>
-      <c r="M42" s="39"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="36" t="s">
+      <c r="C43" s="28"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K43" s="40"/>
+      <c r="K43" s="28"/>
       <c r="L43" s="6">
         <v>2</v>
       </c>
-      <c r="M43" s="39"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="17">
+      <c r="C44" s="28"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30">
         <v>45593</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="J44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K44" s="40"/>
+      <c r="K44" s="28"/>
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="39">
+      <c r="M44" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="36" t="s">
+      <c r="C45" s="28"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K45" s="40"/>
+      <c r="K45" s="28"/>
       <c r="L45" s="6">
         <v>2</v>
       </c>
-      <c r="M45" s="39"/>
+      <c r="M45" s="36"/>
     </row>
     <row r="46" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="36" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K46" s="40"/>
+      <c r="K46" s="28"/>
       <c r="L46" s="6">
         <v>2</v>
       </c>
-      <c r="M46" s="39"/>
+      <c r="M46" s="36"/>
     </row>
     <row r="47" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="17">
+      <c r="C47" s="28"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30">
         <v>45594</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="I47" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="J47" s="36" t="s">
+      <c r="J47" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K47" s="40"/>
+      <c r="K47" s="28"/>
       <c r="L47" s="6">
         <v>2</v>
       </c>
-      <c r="M47" s="39">
+      <c r="M47" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="36" t="s">
+      <c r="C48" s="28"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K48" s="40"/>
+      <c r="K48" s="28"/>
       <c r="L48" s="6">
         <v>2</v>
       </c>
-      <c r="M48" s="39"/>
+      <c r="M48" s="36"/>
     </row>
     <row r="49" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="36" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K49" s="40"/>
+      <c r="K49" s="28"/>
       <c r="L49" s="6">
         <v>2</v>
       </c>
-      <c r="M49" s="39"/>
+      <c r="M49" s="36"/>
     </row>
     <row r="50" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="30">
         <v>45596</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="30">
         <v>45604</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="30">
         <v>45596</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="J50" s="49" t="s">
+      <c r="J50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K50" s="40" t="s">
-        <v>176</v>
+      <c r="K50" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="L50" s="6">
         <v>1</v>
       </c>
-      <c r="M50" s="16">
+      <c r="M50" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="49" t="s">
+      <c r="C51" s="28"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K51" s="40"/>
+      <c r="K51" s="28"/>
       <c r="L51" s="6">
         <v>1</v>
       </c>
-      <c r="M51" s="16"/>
+      <c r="M51" s="28"/>
     </row>
     <row r="52" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="36" t="s">
+      <c r="C52" s="28"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K52" s="40"/>
+      <c r="K52" s="28"/>
       <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="M52" s="16"/>
+      <c r="M52" s="28"/>
     </row>
     <row r="53" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="49" t="s">
+      <c r="C53" s="28"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K53" s="40"/>
+      <c r="K53" s="28"/>
       <c r="L53" s="6">
         <v>1</v>
       </c>
-      <c r="M53" s="16"/>
+      <c r="M53" s="28"/>
     </row>
     <row r="54" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="16"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="36" t="s">
+      <c r="C54" s="28"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K54" s="40"/>
+      <c r="K54" s="28"/>
       <c r="L54" s="6">
         <v>1</v>
       </c>
-      <c r="M54" s="16"/>
-    </row>
-    <row r="55" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C55" s="16"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="K55" s="40"/>
+      <c r="M54" s="28"/>
+    </row>
+    <row r="55" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="28"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="K55" s="28"/>
       <c r="L55" s="6">
         <v>1</v>
       </c>
-      <c r="M55" s="16"/>
+      <c r="M55" s="28"/>
     </row>
     <row r="56" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="17">
+      <c r="C56" s="28"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="30">
         <v>45602</v>
       </c>
-      <c r="I56" s="40" t="s">
+      <c r="I56" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="J56" s="34" t="s">
+      <c r="J56" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="K56" s="40"/>
+      <c r="K56" s="28"/>
       <c r="L56" s="6">
         <v>2</v>
       </c>
-      <c r="M56" s="16">
+      <c r="M56" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="34" t="s">
+      <c r="C57" s="28"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="K57" s="40"/>
+      <c r="K57" s="28"/>
       <c r="L57" s="6">
         <v>1</v>
       </c>
-      <c r="M57" s="16"/>
+      <c r="M57" s="28"/>
     </row>
     <row r="58" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C58" s="16"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="39" t="s">
+      <c r="C58" s="28"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="J58" s="35" t="s">
+      <c r="J58" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="K58" s="40"/>
+      <c r="K58" s="28"/>
       <c r="L58" s="6">
         <v>2</v>
       </c>
-      <c r="M58" s="16"/>
+      <c r="M58" s="28"/>
     </row>
     <row r="59" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C59" s="16"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="36" t="s">
+      <c r="C59" s="28"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K59" s="40"/>
+      <c r="K59" s="28"/>
       <c r="L59" s="6">
         <v>1</v>
       </c>
-      <c r="M59" s="16"/>
+      <c r="M59" s="28"/>
     </row>
     <row r="60" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="16"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="17">
+      <c r="C60" s="28"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30">
         <v>45603</v>
       </c>
-      <c r="I60" s="40" t="s">
+      <c r="I60" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J60" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="K60" s="40"/>
+      <c r="K60" s="28"/>
       <c r="L60" s="6">
         <v>2</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="K61" s="40"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K61" s="28"/>
       <c r="L61" s="6">
         <v>1</v>
       </c>
-      <c r="M61" s="16"/>
+      <c r="M61" s="28"/>
     </row>
     <row r="62" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="J62" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="K62" s="40"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K62" s="28"/>
       <c r="L62" s="6">
         <v>2</v>
       </c>
-      <c r="M62" s="16"/>
+      <c r="M62" s="28"/>
     </row>
     <row r="63" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="K63" s="40"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K63" s="28"/>
       <c r="L63" s="6">
         <v>1</v>
       </c>
-      <c r="M63" s="16"/>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="17">
+      <c r="C64" s="28"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="30">
         <v>45604</v>
       </c>
-      <c r="I64" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="J64" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="K64" s="40"/>
+      <c r="I64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K64" s="28"/>
       <c r="L64" s="6">
         <v>3</v>
       </c>
-      <c r="M64" s="16">
+      <c r="M64" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C65" s="16"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="J65" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="K65" s="40"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="28"/>
       <c r="L65" s="6">
         <v>2</v>
       </c>
-      <c r="M65" s="16"/>
+      <c r="M65" s="28"/>
     </row>
     <row r="66" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="K66" s="40"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K66" s="28"/>
       <c r="L66" s="6">
         <v>1</v>
       </c>
-      <c r="M66" s="16"/>
+      <c r="M66" s="28"/>
     </row>
     <row r="67" spans="3:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="30">
         <v>45607</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="30">
         <v>45615</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="30">
         <v>45607</v>
       </c>
-      <c r="I67" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="J67" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="K67" s="40" t="s">
-        <v>216</v>
+      <c r="I67" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="L67" s="6">
         <v>2</v>
       </c>
-      <c r="M67" s="16">
+      <c r="M67" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="3:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="J68" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="K68" s="40"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K68" s="28"/>
       <c r="L68" s="6">
         <v>2</v>
       </c>
-      <c r="M68" s="16"/>
+      <c r="M68" s="28"/>
     </row>
     <row r="69" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="K69" s="40"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K69" s="28"/>
       <c r="L69" s="6">
         <v>2</v>
       </c>
-      <c r="M69" s="16"/>
+      <c r="M69" s="28"/>
     </row>
     <row r="70" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="17">
+      <c r="C70" s="28"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="30">
         <v>45608</v>
       </c>
-      <c r="I70" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="J70" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="K70" s="40"/>
+      <c r="I70" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K70" s="28"/>
       <c r="L70" s="6">
         <v>2</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M70" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="K71" s="40"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K71" s="28"/>
       <c r="L71" s="6">
         <v>1</v>
       </c>
-      <c r="M71" s="16"/>
+      <c r="M71" s="28"/>
     </row>
     <row r="72" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="K72" s="40"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K72" s="28"/>
       <c r="L72" s="6">
         <v>1</v>
       </c>
-      <c r="M72" s="16"/>
+      <c r="M72" s="28"/>
     </row>
     <row r="73" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C73" s="16"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="K73" s="40"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K73" s="28"/>
       <c r="L73" s="6">
         <v>1</v>
       </c>
-      <c r="M73" s="16"/>
+      <c r="M73" s="28"/>
     </row>
     <row r="74" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="50"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="38"/>
       <c r="J74" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K74" s="40"/>
+        <v>189</v>
+      </c>
+      <c r="K74" s="28"/>
       <c r="L74" s="6">
         <v>1</v>
       </c>
-      <c r="M74" s="16"/>
+      <c r="M74" s="28"/>
     </row>
     <row r="75" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="16"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="17">
+      <c r="C75" s="28"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="30">
         <v>45609</v>
       </c>
-      <c r="I75" s="40" t="s">
+      <c r="I75" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K75" s="28"/>
+      <c r="L75" s="36">
+        <v>2</v>
+      </c>
+      <c r="M75" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C76" s="28"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K76" s="28"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="28"/>
+    </row>
+    <row r="77" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C77" s="28"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K77" s="28"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="28"/>
+    </row>
+    <row r="78" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="28"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J75" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="K75" s="40"/>
-      <c r="L75" s="39">
-        <v>2</v>
-      </c>
-      <c r="M75" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="K76" s="40"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="16"/>
-    </row>
-    <row r="77" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C77" s="16"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="36" t="s">
+      <c r="J78" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K77" s="40"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="16"/>
-    </row>
-    <row r="78" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="J78" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="K78" s="40"/>
+      <c r="K78" s="28"/>
       <c r="L78" s="6">
         <v>2</v>
       </c>
-      <c r="M78" s="16"/>
+      <c r="M78" s="28"/>
     </row>
     <row r="79" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="J79" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="K79" s="40"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K79" s="28"/>
       <c r="L79" s="6">
         <v>1</v>
       </c>
-      <c r="M79" s="16"/>
+      <c r="M79" s="28"/>
     </row>
     <row r="80" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="16"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="K80" s="40"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K80" s="28"/>
       <c r="L80" s="6">
         <v>1</v>
       </c>
-      <c r="M80" s="16"/>
+      <c r="M80" s="28"/>
     </row>
     <row r="81" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="17">
+      <c r="C81" s="28"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="30">
         <v>45610</v>
       </c>
-      <c r="I81" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="J81" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="K81" s="40"/>
+      <c r="I81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K81" s="28"/>
       <c r="L81" s="6">
         <v>3</v>
       </c>
-      <c r="M81" s="16">
+      <c r="M81" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="16"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J82" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="K82" s="40"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K82" s="28"/>
       <c r="L82" s="6">
         <v>2</v>
       </c>
-      <c r="M82" s="16"/>
+      <c r="M82" s="28"/>
     </row>
     <row r="83" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="16"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="28"/>
       <c r="J83" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K83" s="40"/>
+        <v>207</v>
+      </c>
+      <c r="K83" s="28"/>
       <c r="L83" s="6">
         <v>1</v>
       </c>
-      <c r="M83" s="16"/>
+      <c r="M83" s="28"/>
     </row>
     <row r="84" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="17">
+      <c r="C84" s="28"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="30">
         <v>45611</v>
       </c>
-      <c r="I84" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="J84" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="K84" s="40"/>
+      <c r="I84" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K84" s="28"/>
       <c r="L84" s="6">
         <v>3</v>
       </c>
-      <c r="M84" s="16">
+      <c r="M84" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C85" s="16"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="J85" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="K85" s="40"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K85" s="28"/>
       <c r="L85" s="6">
         <v>2</v>
       </c>
-      <c r="M85" s="16"/>
+      <c r="M85" s="28"/>
     </row>
     <row r="86" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="K86" s="40"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="K86" s="28"/>
       <c r="L86" s="6">
         <v>1</v>
       </c>
-      <c r="M86" s="16"/>
+      <c r="M86" s="28"/>
     </row>
     <row r="87" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="17">
+      <c r="C87" s="28"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="30">
         <v>45614</v>
       </c>
-      <c r="I87" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="J87" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="K87" s="40"/>
+      <c r="I87" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K87" s="28"/>
       <c r="L87" s="6">
         <v>4</v>
       </c>
-      <c r="M87" s="16">
+      <c r="M87" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="J88" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="K88" s="40"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K88" s="28"/>
       <c r="L88" s="6">
         <v>2</v>
       </c>
-      <c r="M88" s="16"/>
+      <c r="M88" s="28"/>
     </row>
     <row r="89" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="17">
+      <c r="C89" s="28"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="30">
         <v>45615</v>
       </c>
-      <c r="I89" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="J89" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="K89" s="40"/>
+      <c r="I89" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K89" s="28"/>
       <c r="L89" s="6">
         <v>4</v>
       </c>
-      <c r="M89" s="16">
+      <c r="M89" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="J90" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="K90" s="40"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K90" s="28"/>
       <c r="L90" s="6">
         <v>2</v>
       </c>
-      <c r="M90" s="16"/>
+      <c r="M90" s="28"/>
     </row>
     <row r="91" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D91" s="30">
         <v>45616</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="30">
         <v>45616</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H91" s="30">
         <v>45616</v>
       </c>
-      <c r="I91" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="J91" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="K91" s="39"/>
+      <c r="I91" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K91" s="36"/>
       <c r="L91" s="6">
         <v>2</v>
       </c>
-      <c r="M91" s="16">
+      <c r="M91" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="K92" s="39"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K92" s="36"/>
       <c r="L92" s="6">
         <v>1</v>
       </c>
-      <c r="M92" s="16"/>
+      <c r="M92" s="28"/>
     </row>
     <row r="93" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="16"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="J93" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="K93" s="39"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K93" s="36"/>
       <c r="L93" s="6">
         <v>1</v>
       </c>
-      <c r="M93" s="16"/>
+      <c r="M93" s="28"/>
     </row>
     <row r="94" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="16"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="K94" s="39"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K94" s="36"/>
       <c r="L94" s="6">
         <v>2</v>
       </c>
-      <c r="M94" s="16"/>
+      <c r="M94" s="28"/>
     </row>
     <row r="95" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="17">
+      <c r="D95" s="30">
         <v>45617</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95" s="30">
         <v>45618</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H95" s="17">
+      <c r="H95" s="30">
         <v>45617</v>
       </c>
-      <c r="I95" s="40" t="s">
+      <c r="I95" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J95" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J95" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="K95" s="41" t="s">
-        <v>230</v>
+      <c r="K95" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="L95" s="6">
         <v>2</v>
       </c>
-      <c r="M95" s="20">
+      <c r="M95" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C96" s="16"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="K96" s="47"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K96" s="20"/>
       <c r="L96" s="6">
         <v>1</v>
       </c>
-      <c r="M96" s="21"/>
+      <c r="M96" s="20"/>
     </row>
     <row r="97" spans="3:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="16"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="J97" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="K97" s="47"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K97" s="20"/>
       <c r="L97" s="6">
         <v>2</v>
       </c>
-      <c r="M97" s="21"/>
+      <c r="M97" s="20"/>
     </row>
     <row r="98" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="16"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="K98" s="47"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K98" s="20"/>
       <c r="L98" s="6">
         <v>1</v>
       </c>
-      <c r="M98" s="22"/>
+      <c r="M98" s="21"/>
     </row>
     <row r="99" spans="3:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="16"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
       <c r="H99" s="11">
         <v>45618</v>
       </c>
-      <c r="I99" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="J99" s="36" t="s">
+      <c r="I99" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="K99" s="47"/>
+      <c r="J99" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K99" s="20"/>
       <c r="L99" s="6">
         <v>6</v>
       </c>
@@ -5412,140 +5385,140 @@
       </c>
     </row>
     <row r="100" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="23">
+      <c r="D100" s="22">
         <v>45621</v>
       </c>
-      <c r="E100" s="23">
+      <c r="E100" s="22">
         <v>45621</v>
       </c>
-      <c r="F100" s="25">
+      <c r="F100" s="24">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G100" s="25">
+      <c r="G100" s="24">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H100" s="23">
+      <c r="H100" s="22">
         <v>45621</v>
       </c>
-      <c r="I100" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="J100" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="K100" s="41" t="s">
-        <v>240</v>
+      <c r="I100" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K100" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="L100" s="2">
         <v>3</v>
       </c>
-      <c r="M100" s="20">
+      <c r="M100" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="101" spans="3:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="22"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="K101" s="42"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K101" s="21"/>
       <c r="L101" s="2">
         <v>3</v>
       </c>
-      <c r="M101" s="22"/>
+      <c r="M101" s="21"/>
     </row>
     <row r="102" spans="3:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="17">
+      <c r="D102" s="30">
         <v>45622</v>
       </c>
-      <c r="E102" s="17">
+      <c r="E102" s="30">
         <v>45622</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G102" s="18">
+      <c r="G102" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H102" s="23">
+      <c r="H102" s="22">
         <v>45622</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J102" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="K102" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
+      </c>
+      <c r="J102" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K102" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="L102" s="2">
         <v>3</v>
       </c>
-      <c r="M102" s="16">
+      <c r="M102" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="103" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C103" s="16"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="26"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="25"/>
       <c r="I103" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J103" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="K103" s="21"/>
+        <v>234</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="K103" s="20"/>
       <c r="L103" s="2">
         <v>1</v>
       </c>
-      <c r="M103" s="16"/>
+      <c r="M103" s="28"/>
     </row>
     <row r="104" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C104" s="16"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="27"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="26"/>
       <c r="I104" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K104" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="K104" s="21"/>
       <c r="L104" s="2">
         <v>2</v>
       </c>
-      <c r="M104" s="16"/>
+      <c r="M104" s="28"/>
     </row>
     <row r="105" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C105" s="31" t="s">
+      <c r="C105" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12">
@@ -5559,17 +5532,131 @@
     </row>
   </sheetData>
   <mergeCells count="160">
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="H102:H104"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="K102:K104"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="K6:K11"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="M102:M104"/>
+    <mergeCell ref="M91:M94"/>
+    <mergeCell ref="G91:G94"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K40"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C105:I105"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="F95:F99"/>
+    <mergeCell ref="G95:G99"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="F91:F94"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="F41:F49"/>
+    <mergeCell ref="G41:G49"/>
+    <mergeCell ref="C67:C90"/>
+    <mergeCell ref="D67:D90"/>
+    <mergeCell ref="E67:E90"/>
+    <mergeCell ref="F67:F90"/>
+    <mergeCell ref="G67:G90"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C12:C40"/>
+    <mergeCell ref="D12:D40"/>
+    <mergeCell ref="E12:E40"/>
+    <mergeCell ref="F12:F40"/>
+    <mergeCell ref="G12:G40"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I50:I55"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="H70:H74"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H75:H80"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="M75:M80"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="H50:H55"/>
+    <mergeCell ref="C50:C66"/>
+    <mergeCell ref="D50:D66"/>
+    <mergeCell ref="E50:E66"/>
+    <mergeCell ref="F50:F66"/>
+    <mergeCell ref="G50:G66"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="K50:K66"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="M56:M59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="M60:M63"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K41:K49"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="I47:I49"/>
     <mergeCell ref="M95:M98"/>
     <mergeCell ref="K95:K99"/>
     <mergeCell ref="H26:H27"/>
@@ -5594,131 +5681,17 @@
     <mergeCell ref="I75:I77"/>
     <mergeCell ref="L75:L77"/>
     <mergeCell ref="I79:I80"/>
-    <mergeCell ref="M75:M80"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="M50:M55"/>
-    <mergeCell ref="H50:H55"/>
-    <mergeCell ref="C50:C66"/>
-    <mergeCell ref="D50:D66"/>
-    <mergeCell ref="E50:E66"/>
-    <mergeCell ref="F50:F66"/>
-    <mergeCell ref="G50:G66"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="K50:K66"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="M56:M59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="M60:M63"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I50:I55"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="H70:H74"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H75:H80"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="K41:K49"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C12:C40"/>
-    <mergeCell ref="D12:D40"/>
-    <mergeCell ref="E12:E40"/>
-    <mergeCell ref="F12:F40"/>
-    <mergeCell ref="G12:G40"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="F41:F49"/>
-    <mergeCell ref="G41:G49"/>
-    <mergeCell ref="C67:C90"/>
-    <mergeCell ref="D67:D90"/>
-    <mergeCell ref="E67:E90"/>
-    <mergeCell ref="F67:F90"/>
-    <mergeCell ref="G67:G90"/>
-    <mergeCell ref="C105:I105"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="E95:E99"/>
-    <mergeCell ref="F95:F99"/>
-    <mergeCell ref="G95:G99"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="F91:F94"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="K6:K11"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="M102:M104"/>
-    <mergeCell ref="M91:M94"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K40"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H102:H104"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K104"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
   </mergeCells>
   <conditionalFormatting sqref="I41 I44 I47 J52:J54">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>

--- a/Cronograma/Cronograma-Actividades_Herrera_V2.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58F601-005C-4291-A7FE-84575E6B557E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844463B9-FB34-418E-AD13-33DFAD0C3943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="250">
   <si>
     <t>Activity</t>
   </si>
@@ -1093,9 +1093,6 @@
     <t xml:space="preserve"> Continuación de la búsqueda de librerías para cubrir todas las necesidades identificadas en el análisis anterior (Parte 2).</t>
   </si>
   <si>
-    <t>Implementación inicial de las correcciones basadas en los errores detectados y en las librerías seleccionadas.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Primera ronda de pruebas para evaluar la efectividad de las correcciones aplicadas y análisis de los resultados obtenidos (Parte 1).</t>
   </si>
   <si>
@@ -1159,66 +1156,24 @@
     <t>Revisión del código para identificar errores generales y áreas problemáticas</t>
   </si>
   <si>
-    <t>Documentación de hallazgos iniciales y planificación de próximas actividades</t>
-  </si>
-  <si>
     <t>Análisis de las librerías obsoletas y su funcionalidad actual</t>
   </si>
   <si>
     <t>Listar posibles alternativas y priorizar áreas de atención</t>
   </si>
   <si>
-    <t>Investigación de librerías complementarias y actualizadas</t>
-  </si>
-  <si>
-    <t>Revisión de compatibilidad de librerías seleccionadas con el sistema actual</t>
-  </si>
-  <si>
     <t>Descarga y configuración inicial de las nuevas librerías</t>
   </si>
   <si>
-    <t>Análisis y pruebas  detallado de las dependencias de las librerías seleccionadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificación y clasificación de errores detectados en pruebas iniciales </t>
-  </si>
-  <si>
-    <t>Evaluación de soluciones y diseño de correcciones prioritarias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajustes en el código según los errores identificados </t>
-  </si>
-  <si>
-    <t>Pruebas preliminares de las correcciones aplicadas</t>
-  </si>
-  <si>
-    <t>Ejecución de pruebas para evaluar efectividad de las correcciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis y registro de resultados obtenidos </t>
-  </si>
-  <si>
     <t>Aplicación de nuevas versiones de librerías para resolver errores restantes</t>
   </si>
   <si>
-    <t>Pruebas rápidas de validación de los cambios realizados</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descarga e integración de nuevas librerías y componentes </t>
   </si>
   <si>
     <t>Configuración y ajuste inicial de las librerías integradas</t>
   </si>
   <si>
-    <t>Pruebas iniciales para verificar integración de librerías</t>
-  </si>
-  <si>
-    <t>Corrección de problemas detectados durante las pruebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redacción del borrador, describiendo cambios y resultados obtenidos </t>
-  </si>
-  <si>
     <t>Revisión del documento para asegurar claridad y precisión</t>
   </si>
   <si>
@@ -1243,63 +1198,18 @@
     <t>Pruebas para garantizar que los servicios están siendo llamados de manera adecuada y eficiente, ajustando cualquier error encontrado.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Inspección del código para identificar llamados a los servicios de base de datos.</t>
-  </si>
-  <si>
-    <t>Revisión de los métodos de autenticación móvil implementados.</t>
-  </si>
-  <si>
-    <t>Documentación de los resultados encontrados y áreas de mejora en los servicios.</t>
-  </si>
-  <si>
-    <t>Pruebas funcionales para verificar el rendimiento de los servicios.</t>
-  </si>
-  <si>
-    <t>Ajustes menores en el código según errores encontrados en las pruebas.</t>
-  </si>
-  <si>
-    <t>Validación final con un entorno simulado para asegurar eficiencia y efectividad.</t>
-  </si>
-  <si>
-    <t>Ajustes en el código para corregir errores en los llamados a los servicios.</t>
-  </si>
-  <si>
-    <t>Pruebas unitarias para validar los cambios realizados</t>
-  </si>
-  <si>
-    <t>Revisión de logs y seguimiento de respuestas de los servicios para confirmar la integración correcta.</t>
-  </si>
-  <si>
     <t>Entre el 25 y el 29 de octubre de 2024, se realizó un trabajo exhaustivo para revisar, modificar y probar los servicios principales de la app. El enfoque inicial fue la identificación de áreas problemáticas, seguido de ajustes en el código y pruebas rigurosas para garantizar la correcta integración y eficiencia en los llamados a servicios como base de datos y autenticación móvil. El resultado fue un sistema más estable y funcional.</t>
   </si>
   <si>
     <t>Realizar un examen práctico para evaluar lo aprendido y Revisión los resultados y recibir retroalimentación.</t>
   </si>
   <si>
-    <t>Revisión de los problemas actuales en el sistema de autenticación.</t>
-  </si>
-  <si>
-    <t>Análisis de los tiempos de respuesta actuales al obtener datos.</t>
-  </si>
-  <si>
-    <t>Identificación de eventos clave que dispararán las alertas.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Levantamiento de requerimientos </t>
   </si>
   <si>
-    <t>Listado de las funcionalidades adicionales deseadas</t>
-  </si>
-  <si>
-    <t>Listado de mejoras específicas como paginación o filtros avanzados.</t>
-  </si>
-  <si>
     <t>Implementación de mejoras en el login, optimizando la seguridad y la experiencia del usuario.</t>
   </si>
   <si>
-    <t>Pruebas preliminares para garantizar que el login funcione correctamente.</t>
-  </si>
-  <si>
     <t>Modificación del sistema de autenticación para agregar validaciones adicionales implementado nuevos metodos de seguridad.</t>
   </si>
   <si>
@@ -1326,34 +1236,10 @@
     </r>
   </si>
   <si>
-    <t>Configuración de un sistema de notificaciones dentro de la app.</t>
-  </si>
-  <si>
-    <t>Pruebas iniciales para validar que las alertas se envíen correctamente.</t>
-  </si>
-  <si>
     <t>Análisis del rendimiento de la carga de datos y detección de áreas críticas.</t>
   </si>
   <si>
-    <t>Revisión de los tiempos actuales de carga de datos en distintas secciones de la app.</t>
-  </si>
-  <si>
-    <t>Comparativa con métricas de rendimiento esperadas.</t>
-  </si>
-  <si>
-    <t>Actualización de consultas a la base de datos para reducir tiempos de respuesta.</t>
-  </si>
-  <si>
-    <t>Verificación del impacto de los cambios mediante pruebas de rendimiento.</t>
-  </si>
-  <si>
-    <t>Ejecución de pruebas sobre las mejoras en el login, alertas y carga de datos.</t>
-  </si>
-  <si>
     <t>Registro de los errores detectados y los pasos para solucionarlos.</t>
-  </si>
-  <si>
-    <t>Actualización de la documentación técnica del proyecto.</t>
   </si>
   <si>
     <r>
@@ -1381,12 +1267,6 @@
     <t>Ajustes en la configuración de la app en Android Studio.</t>
   </si>
   <si>
-    <t>Modificación del código para corregir errores previos.</t>
-  </si>
-  <si>
-    <t>Agregado de librerías faltantes para completar dependencias.</t>
-  </si>
-  <si>
     <t>Configuración inicial para la integración en Android Studio.</t>
   </si>
   <si>
@@ -1414,15 +1294,6 @@
     <t>Identificación de las partes de la app que requieren modificaciones inmediatas</t>
   </si>
   <si>
-    <t>Crear un plan de acción para implementar los ajustes necesarios y establecer prioridades.</t>
-  </si>
-  <si>
-    <t>Identificación de bloques de código repetidos o innecesarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Identificación de áreas que podrían complicar futuras actualizaciones.</t>
-  </si>
-  <si>
     <t>Configuración de todas las librerías necesarias en Android Studio.</t>
   </si>
   <si>
@@ -1462,9 +1333,6 @@
     <t>Identificación y resolución de posibles conflictos de configuraciones previas.</t>
   </si>
   <si>
-    <t>Modificación del código para resolver los problemas previos sin generar nuevos conflictos.</t>
-  </si>
-  <si>
     <t>Revisión de las dependencias y asegurarse de que todas las librerías necesarias estén integradas.</t>
   </si>
   <si>
@@ -1472,9 +1340,6 @@
   </si>
   <si>
     <t xml:space="preserve">Revisión general del proyecto para identificar los aspectos más relevantes a incluir en la documentación. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Redacción  y finalizción sobre las secciones sobre la planificación del proyecto y las decisiones tomadas durante el desarrollo.</t>
   </si>
   <si>
     <t>Identificación de problemas causados por las nuevas librerías agregadas.</t>
@@ -1523,12 +1388,6 @@
     <t xml:space="preserve"> Determinación de los elementos más importantes que deben ser incluidos en la documentación,</t>
   </si>
   <si>
-    <t>edacción de las secciones que cubren el enfoque general del proyecto, los objetivos planteados y las fases del desarrollo.</t>
-  </si>
-  <si>
-    <t>Elaboración y revisión de las secciones finales de la documentación, asegurando que toda la información esté clara, completa y lista para ser entregada.</t>
-  </si>
-  <si>
     <t>Revisión de la infraestructura de redes actual. Identificación de  equipos de red y protocolos utilizados.</t>
   </si>
   <si>
@@ -1538,9 +1397,6 @@
     <t>Evaluación de los dispositivos y protocolos de comunicación empleados en la infraestructura, verificando su compatibilidad y capacidad.</t>
   </si>
   <si>
-    <t>mplementación de herramientas de monitoreo para evaluar el rendimiento de la red, como el ancho de banda, latencia y posibles cuellos de botella.</t>
-  </si>
-  <si>
     <t>Análisis de los datos recolectados para identificar posibles problemas de rendimiento o de configuración en la red.</t>
   </si>
   <si>
@@ -1568,37 +1424,203 @@
     <t xml:space="preserve"> Revisión y preparación final de la documentación sobre la mejora y actualizción del aplicativo movil .</t>
   </si>
   <si>
-    <t xml:space="preserve"> Entrega de la documentación a los responsables del seguimiento del proyecto sobre el aplicativo movil.</t>
-  </si>
-  <si>
     <t>Resolución de dudas y comentarios, y ajustes finales basados en las sugerencias recibidas.</t>
   </si>
   <si>
-    <t>Revisión detallada de la documentación.
-Revisión de las mejoras implementadas.
-Verificación de la claridad y precisión de la información.</t>
-  </si>
-  <si>
-    <t>Proceso de entrega de la documentación finalizada a los responsables del proyecto, asegurando que reciban una versión completa y precisa de todas las actualizaciones.</t>
-  </si>
-  <si>
-    <t>Revisión de comentarios  y sugerencias, Implementación de ajustes finales y Cierre de la fase de documentación</t>
-  </si>
-  <si>
     <t xml:space="preserve">El día 25 de noviembre, se dedicó a realizar una configuración avanzada del router para optimizar tanto la seguridad como el rendimiento de la red. </t>
   </si>
   <si>
     <t xml:space="preserve">El 26 de noviembre se centró en la revisión y preparación final de la documentación relacionada con las mejoras y actualizaciones del aplicativo móvil. Se verificó que toda la información estuviera detallada y clara, cubriendo todos los aspectos técnicos y cambios realizados. </t>
   </si>
   <si>
-    <t>Especificación del formato de las alertas (push, notificaciones en app, correos) y determinación de la prioridad  de las alertas.</t>
+    <t>Análisis Detalladas de las Dependencias de las Librerías Seleccionadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustes en el código y librerias según los errores identificados </t>
+  </si>
+  <si>
+    <t>Implementación de las correcciones basadas en los errores detectados y en las librerías seleccionadas.</t>
+  </si>
+  <si>
+    <t>Documentación de hallazgos Iniciales en base a la revisión de código.</t>
+  </si>
+  <si>
+    <t>Evaluar las nuevas funcionalidades y mejoras ofrecidas por estas librerías en relación con las necesidades del proyecto.</t>
+  </si>
+  <si>
+    <t>Realizar un análisis exhaustivo de los errores encontrados durante las pruebas iniciales del sistema, identificando los tipos de errores (funcionales, de rendimiento, de compatibilidad, etc.).</t>
+  </si>
+  <si>
+    <t>Clasificar los errores según su gravedad y su impacto en la funcionalidad de la aplicación para priorizar su resolución.</t>
+  </si>
+  <si>
+    <t>Realizar un análisis detallado de los resultados obtenidos tras la implementación de las correcciones en el código sobre sus librerias</t>
+  </si>
+  <si>
+    <t>Evaluar el comportamiento del sistema, asegurando que las correcciones no introduzcan nuevos problemas.</t>
+  </si>
+  <si>
+    <t>Asegurarse de que las nuevas versiones de las librerías sean compatibles con el sistema y no introduzcan conflictos o nuevos problemas.</t>
+  </si>
+  <si>
+    <t>Realizar la ejecución de pruebas para verificar si las correcciones aplicadas en el código y las actualizaciones de librerías han resuelto los problemas detectados en pruebas anteriores.</t>
+  </si>
+  <si>
+    <t>Realizar una investigación de las librerías y sus actualizaciones para identificar aquellas que pueden reemplazar o mejorar las secciones obsoletas en el código.</t>
+  </si>
+  <si>
+    <t>Realizar la ejecución para verificar  las actualizaciones de librerías han sido realizado.</t>
+  </si>
+  <si>
+    <t>Realizar una revisión detallada del código modificado tras las correcciones y actualizaciones realizadas en las rondas anteriores, buscando posibles errores o inconsistencias que puedan haber surgido.</t>
+  </si>
+  <si>
+    <t>Realizar pruebas iniciales para verificar la correcta integración de las nuevas librerías y componentes en el sistema.</t>
+  </si>
+  <si>
+    <t>Identificar y corregir los problemas detectados durante las pruebas de integración, tales como incompatibilidades, fallos en la funcionalidad o errores en la comunicación entre componentes.</t>
+  </si>
+  <si>
+    <t>Implementar nuevas librerías en el proyecto durante las fases de prueba para asegurar que todas las funcionalidades necesarias sean cubiertas.</t>
+  </si>
+  <si>
+    <t>Asegurar que las librerías implementadas no generen conflictos con el código existente y que cumplan con los requisitos del proyecto.</t>
+  </si>
+  <si>
+    <t>Identificar y registrar cualquier problema o error que surja durante las pruebas realizadas en el IDE..</t>
+  </si>
+  <si>
+    <t>Evaluar si los problemas detectados en la primera ronda de pruebas han sido resueltos y si esta operando correctamente y analizar el rendimiento del sistema tras las mejoras y asegurarse de que no se hayan introducido nuevos errores o conflictos.</t>
+  </si>
+  <si>
+    <t>Inspeccionar el código fuente de la aplicación para identificar en qué partes del código se están realizando los llamados a los servicios de base de datos.</t>
+  </si>
+  <si>
+    <t>Revisar el código relacionado con los métodos de autenticación móvil, asegurándose de que se implementen adecuadamente las técnicas de seguridad y que el flujo de autenticación funcione correctamente.</t>
+  </si>
+  <si>
+    <t>Redactar el borrador del documento de actualización de la aplicación, describiendo detalladamente todos los cambios realizados durante el proceso de desarrollo, como actualizaciones de librerías y correcciones de errores.</t>
+  </si>
+  <si>
+    <t>Modificar el código para corregir cualquier error en los llamados a los servicios, asegurándose de que se realicen de manera eficiente y segura.</t>
+  </si>
+  <si>
+    <t>Validar que los servicios se estén llamando correctamente y que las respuestas sean las esperadas.</t>
+  </si>
+  <si>
+    <t>Revisar los logs generados durante las pruebas para detectar cualquier error o inconsistencia en los llamados a los servicios.</t>
+  </si>
+  <si>
+    <t>Evaluar el tiempo de respuesta, la eficiencia en el uso de recursos y la estabilidad de los servicios durante las pruebas.</t>
+  </si>
+  <si>
+    <t>Realizar ajustes menores en el código para corregir cualquier error o inconsistencias encontradas durante las pruebas.</t>
+  </si>
+  <si>
+    <t>Comprobar que todos los servicios funcionen de manera eficiente y efectiva, resolviendo cualquier posible problema antes de la implementación en producción.</t>
+  </si>
+  <si>
+    <t>Identificar áreas críticas que necesiten mejoras o actualizaciones en el sistema de autenticación.</t>
+  </si>
+  <si>
+    <t>Priorizar las funcionalidades según la importancia para el usuario final y el impacto en el sistema.</t>
+  </si>
+  <si>
+    <t>Realizar un análisis del rendimiento actual en la obtención de datos, evaluando tiempos de carga, procesos lentos y posibles cuellos de botella.</t>
+  </si>
+  <si>
+    <t>Evaluar la viabilidad de cada mejora y su impacto en el rendimiento general.</t>
+  </si>
+  <si>
+    <t>Establecer qué tipos de eventos deben generar alertas inmediatas y cuáles pueden ser menos urgentes.</t>
+  </si>
+  <si>
+    <t>Validar que las nuevas validaciones y métodos de seguridad no interfieran con la experiencia de usuario y que el proceso de inicio de sesión funcione sin problemas.</t>
+  </si>
+  <si>
+    <t>Configurar un sistema de notificaciones para alertar a los usuarios sobre el ingreso de resultados en las operaciones.</t>
+  </si>
+  <si>
+    <t>Validar que las alertas lleguen a los usuarios de manera oportuna y sin fallos, y que la información sea precisa y clara.</t>
+  </si>
+  <si>
+    <t>Identificar posibles cuellos de botella que puedan estar afectando la experiencia del usuario, como tiempos de carga excesivos o retrasos en la actualización de datos.</t>
+  </si>
+  <si>
+    <t>Comparar los tiempos de carga actuales con las métricas de rendimiento esperadas o estándar para identificar desviaciones y áreas que requieren optimización.</t>
+  </si>
+  <si>
+    <t>Mejorar la estructura y el acceso a los datos para reducir los tiempos de respuesta y acelerar la carga en la app.</t>
+  </si>
+  <si>
+    <t>Comparar los resultados obtenidos con los tiempos de respuesta previos para asegurar que las optimizaciones hayan mejorado la eficiencia sin afectar otras funcionalidades de la app.</t>
+  </si>
+  <si>
+    <t>Ejecución de pruebas  sobre las mejoras en el login, alertas y carga de datos tras modiciaciones extras.</t>
+  </si>
+  <si>
+    <t>Realizar pruebas integrales para verificar que las mejoras en el login, alertas y carga de datos sigan funcionando correctamente tras las modificaciones adicionales, asegurando que no haya nuevos errores y que se mantenga o mejore el rendimiento.</t>
+  </si>
+  <si>
+    <t>Actualizar la documentación del proyecto, incluyendo las modificaciones realizadas en las mejoras del login, alertas y carga de datos.</t>
+  </si>
+  <si>
+    <t>Investigar si la actualización ha causado conflictos con versiones anteriores de librerías, dependencias o configuraciones específicas..</t>
+  </si>
+  <si>
+    <t>Establecer prioridades para las modificaciones, enfocándose primero en las áreas críticas que puedan afectar el rendimiento y la estabilidad de la app.</t>
+  </si>
+  <si>
+    <t>Identificar secciones del código que no aportan valor a la funcionalidad general de la app y que podrían eliminarse o simplificarse para mejorar el rendimiento y la legibilidad.</t>
+  </si>
+  <si>
+    <t>Evaluar las posibles dificultades que puedan surgir al agregar nuevas funcionalidades o realizar modificaciones importantes debido a la forma en que está organizado el código.</t>
+  </si>
+  <si>
+    <t>Implementacion del codigo en Android Studio.</t>
+  </si>
+  <si>
+    <t>Implementar las correcciones y modificaciones en Android Studio, asegurándose de seguir las mejores prácticas para evitar errores adicionales.</t>
+  </si>
+  <si>
+    <t>Concluir  las conclusiones del informe, resumiendo los logros alcanzados, los desafíos enfrentados y las soluciones implementadas.</t>
+  </si>
+  <si>
+    <t>Implementación de herramientas de monitoreo para evaluar el rendimiento de la red.</t>
+  </si>
+  <si>
+    <t>Escribir un informe dando la parte introductoria que describa el objetivo principal del proyecto, su propósito y la importancia de las decisiones tomadas durante el desarrollo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redacción  y finalizción sobre la creación del Informe sobre el la actualización y mejora de la app.</t>
+  </si>
+  <si>
+    <t>Realizar una revisión exhaustiva del documento, asegurándose de que todas las secciones estén completas y bien estructuradas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entrega del informe final  a los responsables del seguimiento del proyecto sobre el aplicativo movil.</t>
+  </si>
+  <si>
+    <t>Entregar el informe final a los responsables del seguimiento del proyecto, asegurando que comprendan el contenido y las actualizaciones realizadas en el aplicativo móvil.</t>
+  </si>
+  <si>
+    <t>Aplicar los ajustes necesarios en la documentación, asegurándose de que todos los comentarios y sugerencias sean abordados de manera adecuada.</t>
+  </si>
+  <si>
+    <t>Continuar a documentación anterior y agregar los  resultados encontrados durante la inspección de los servicios de base de datos y autenticación móvil, detallando cualquier problema o área de mejora.</t>
+  </si>
+  <si>
+    <t>Definir el formato de las alertas, como mensajes dentro de la app, según la gravedad y urgencia de los eventos.</t>
+  </si>
+  <si>
+    <t>Agregado de librerías faltantes para completar dependencias por Android Studio.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1646,8 +1668,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1657,6 +1685,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF975CCB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1725,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1763,30 +1821,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1835,10 +1881,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1847,19 +1899,82 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2211,52 +2326,52 @@
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="3:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2288,22 +2403,22 @@
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="26">
         <v>45559</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="26">
         <v>45562</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="26">
         <v>45559</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="25">
         <v>0.58333333333333337</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -2312,72 +2427,72 @@
       <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="24">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="6">
         <v>6</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="6">
         <v>6</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="26">
         <v>45565</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <v>45588</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="26">
         <v>45565</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="25">
         <v>0.58333333333333337</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2386,267 +2501,267 @@
       <c r="J11" s="6">
         <v>6</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="24">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J12" s="6">
         <v>6</v>
       </c>
-      <c r="K12" s="28"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C13" s="28"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="6">
         <v>6</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="6">
         <v>6</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="28"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="6" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="6">
         <v>6</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="6">
         <v>6</v>
       </c>
-      <c r="K18" s="28"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="6">
         <v>6</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="6">
         <v>6</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="6">
         <v>6</v>
       </c>
-      <c r="K21" s="28"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="28"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="28"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="3:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="28"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="28"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="3:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="28"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="7" t="s">
         <v>70</v>
       </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
-      <c r="K26" s="28"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="28"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="26">
         <v>45590</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="26">
         <v>45594</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="26">
         <v>45590</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="25">
         <v>0.58333333333333337</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -2655,57 +2770,57 @@
       <c r="J28" s="6">
         <v>6</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="24">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="28"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="6" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
-      <c r="K29" s="28"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="28"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="6">
         <v>6</v>
       </c>
-      <c r="K30" s="28"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="26">
         <v>45596</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="26">
         <v>45604</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="26">
         <v>45596</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="25">
         <v>0.58333333333333337</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -2714,132 +2829,132 @@
       <c r="J31" s="6">
         <v>4</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="24">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="28"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="28"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="28"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="28"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C34" s="28"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="6">
         <v>2</v>
       </c>
-      <c r="K34" s="28"/>
+      <c r="K34" s="24"/>
     </row>
     <row r="35" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="28"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="6">
         <v>3</v>
       </c>
-      <c r="K35" s="28"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="28"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="6">
         <v>3</v>
       </c>
-      <c r="K36" s="28"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C37" s="28"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
-      <c r="K37" s="28"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="28"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J38" s="6">
         <v>2</v>
       </c>
-      <c r="K38" s="28"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="26">
         <v>45607</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="26">
         <v>45615</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="26">
         <v>45607</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="25">
         <v>0.58333333333333337</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -2848,237 +2963,237 @@
       <c r="J39" s="6">
         <v>2</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="24">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="28"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="6">
         <v>4</v>
       </c>
-      <c r="K40" s="28"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C41" s="28"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="7" t="s">
         <v>50</v>
       </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
-      <c r="K41" s="28"/>
+      <c r="K41" s="24"/>
     </row>
     <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="28"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J42" s="6">
         <v>4</v>
       </c>
-      <c r="K42" s="28"/>
+      <c r="K42" s="24"/>
     </row>
     <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="28"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="28"/>
+      <c r="K43" s="24"/>
     </row>
     <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="28"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J44" s="6">
         <v>3</v>
       </c>
-      <c r="K44" s="28"/>
+      <c r="K44" s="24"/>
     </row>
     <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="28"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="28"/>
+      <c r="K45" s="24"/>
     </row>
     <row r="46" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="28"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J46" s="6">
         <v>5</v>
       </c>
-      <c r="K46" s="28"/>
+      <c r="K46" s="24"/>
     </row>
     <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="28"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="28"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C48" s="28"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="28"/>
+      <c r="K48" s="24"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="28"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="28"/>
+      <c r="K49" s="24"/>
     </row>
     <row r="50" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="28"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J50" s="6">
         <v>4</v>
       </c>
-      <c r="K50" s="28"/>
+      <c r="K50" s="24"/>
     </row>
     <row r="51" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="28"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J51" s="6">
         <v>2</v>
       </c>
-      <c r="K51" s="28"/>
+      <c r="K51" s="24"/>
     </row>
     <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="28"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J52" s="6">
         <v>4</v>
       </c>
-      <c r="K52" s="28"/>
+      <c r="K52" s="24"/>
     </row>
     <row r="53" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C53" s="28"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J53" s="6">
         <v>2</v>
       </c>
-      <c r="K53" s="28"/>
+      <c r="K53" s="24"/>
     </row>
     <row r="54" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="18">
         <v>45616</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="18">
         <v>45616</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="18">
         <v>45616</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="20">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="20">
         <v>0.58333333333333337</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -3087,42 +3202,42 @@
       <c r="J54" s="6">
         <v>2</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="3:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="21"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
       <c r="I55" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J55" s="6">
         <v>4</v>
       </c>
-      <c r="K55" s="21"/>
+      <c r="K55" s="17"/>
     </row>
     <row r="56" spans="3:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="26">
         <v>45617</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="26">
         <v>45618</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="26">
         <v>45618</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G56" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="25">
         <v>0.58333333333333337</v>
       </c>
       <c r="I56" s="6" t="s">
@@ -3131,39 +3246,39 @@
       <c r="J56" s="6">
         <v>3</v>
       </c>
-      <c r="K56" s="28">
+      <c r="K56" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="3:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="28"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="6" t="s">
         <v>65</v>
       </c>
       <c r="J57" s="6">
         <v>3</v>
       </c>
-      <c r="K57" s="28"/>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="28"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="6">
         <v>6</v>
       </c>
-      <c r="K58" s="28"/>
+      <c r="K58" s="24"/>
     </row>
     <row r="59" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
@@ -3195,22 +3310,22 @@
       </c>
     </row>
     <row r="60" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="18">
         <v>45622</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="18">
         <v>45622</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="18">
         <v>45622</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="20">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="24">
+      <c r="H60" s="20">
         <v>0.58333333333333337</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -3219,50 +3334,50 @@
       <c r="J60" s="2">
         <v>3</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K60" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C61" s="20"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
       <c r="I61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
-      <c r="K61" s="20"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="62" spans="3:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="21"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
       </c>
-      <c r="K62" s="21"/>
+      <c r="K62" s="17"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
       <c r="J63" s="5">
         <f>SUM(J7:J62)</f>
         <v>240</v>
@@ -3341,10 +3456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB14C4-DC0E-4802-9506-F4694C0E8E07}">
-  <dimension ref="C1:R105"/>
+  <dimension ref="C1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="I103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,70 +3467,72 @@
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="7" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="11" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="3:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="40" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="45" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="3:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="3:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -3452,116 +3569,116 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+    <row r="6" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="26">
         <v>45559</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <v>45562</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="25">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="26">
         <v>45559</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="28" t="s">
-        <v>138</v>
+      <c r="K6" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="L6" s="6">
         <v>3</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="32">
         <v>6</v>
       </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="28"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="16" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="6">
         <v>3</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="R7" s="15"/>
+      <c r="M7" s="32"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30">
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26">
         <v>45560</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="2" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="6">
         <v>3</v>
       </c>
-      <c r="M9" s="36"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="3">
         <v>45561</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="6">
         <v>6</v>
       </c>
@@ -3569,22 +3686,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+    <row r="11" spans="3:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="24"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="3">
         <v>45562</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11" s="28"/>
+      <c r="J11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="24"/>
       <c r="L11" s="6">
         <v>6</v>
       </c>
@@ -3592,354 +3709,354 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>45565</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="33">
         <v>45588</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="20">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="18">
         <v>45565</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>137</v>
+      <c r="J12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="28"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="24"/>
       <c r="L13" s="6">
         <v>2</v>
       </c>
-      <c r="M13" s="36"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="22">
+      <c r="C14" s="16"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="18">
         <v>45566</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" s="28"/>
+      <c r="J14" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="24"/>
       <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="28"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="24"/>
       <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="20"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="22">
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="3:18" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="16"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="18">
         <v>45567</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="28"/>
+      <c r="J16" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="24"/>
       <c r="L16" s="6">
         <v>4</v>
       </c>
-      <c r="M16" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="28"/>
+      <c r="M16" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="16"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="24"/>
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="36"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="20"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="22">
+      <c r="C18" s="16"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="18">
         <v>45568</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="28"/>
+      <c r="J18" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="24"/>
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="28"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="24"/>
       <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="M19" s="36"/>
-    </row>
-    <row r="20" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="20"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="22">
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="16"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="18">
         <v>45569</v>
       </c>
-      <c r="I20" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="28"/>
+      <c r="I20" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" s="24"/>
       <c r="L20" s="6">
         <v>3</v>
       </c>
-      <c r="M20" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="28"/>
+      <c r="M20" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="16"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="24"/>
       <c r="L21" s="6">
         <v>3</v>
       </c>
-      <c r="M21" s="36"/>
-    </row>
-    <row r="22" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="20"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="22">
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="3:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="18">
         <v>45572</v>
       </c>
-      <c r="I22" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="28"/>
+      <c r="I22" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" s="24"/>
       <c r="L22" s="6">
         <v>4</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="20"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="28"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="24"/>
       <c r="L23" s="6">
         <v>2</v>
       </c>
-      <c r="M23" s="36"/>
-    </row>
-    <row r="24" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="20"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="22">
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="3:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="16"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="18">
         <v>45573</v>
       </c>
-      <c r="I24" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="28"/>
+      <c r="I24" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" s="24"/>
       <c r="L24" s="6">
         <v>4</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="20"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K25" s="28"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" s="24"/>
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="36"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="20"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="22">
+      <c r="C26" s="16"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="18">
         <v>45574</v>
       </c>
-      <c r="I26" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K26" s="28"/>
+      <c r="I26" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="24"/>
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="20"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K27" s="28"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" s="24"/>
       <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="M27" s="36"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C28" s="20"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="3">
         <v>45575</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="28"/>
+      <c r="I28" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" s="24"/>
       <c r="L28" s="6">
         <v>6</v>
       </c>
@@ -3947,22 +4064,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="20"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+    <row r="29" spans="3:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="16"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="3">
         <v>45579</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K29" s="28"/>
+      <c r="I29" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="24"/>
       <c r="L29" s="6">
         <v>6</v>
       </c>
@@ -3971,1602 +4088,1592 @@
       </c>
     </row>
     <row r="30" spans="3:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="20"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="22">
+      <c r="C30" s="16"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="18">
         <v>45580</v>
       </c>
-      <c r="I30" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K30" s="28"/>
+      <c r="I30" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="24"/>
       <c r="L30" s="6">
         <v>4</v>
       </c>
-      <c r="M30" s="36">
+      <c r="M30" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="20"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="28"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="24"/>
       <c r="L31" s="6">
         <v>2</v>
       </c>
-      <c r="M31" s="36"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="20"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="22">
+      <c r="C32" s="16"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="18">
         <v>45581</v>
       </c>
-      <c r="I32" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K32" s="28"/>
+      <c r="I32" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" s="24"/>
       <c r="L32" s="6">
         <v>4</v>
       </c>
-      <c r="M32" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="20"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K33" s="28"/>
+      <c r="M32" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="16"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="K33" s="24"/>
       <c r="L33" s="6">
         <v>2</v>
       </c>
-      <c r="M33" s="36"/>
-    </row>
-    <row r="34" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="20"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="3">
+      <c r="M33" s="32"/>
+    </row>
+    <row r="34" spans="3:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="16"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="18">
         <v>45582</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" s="24"/>
+      <c r="L34" s="6">
+        <v>4</v>
+      </c>
+      <c r="M34" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="16"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" s="24"/>
+      <c r="L35" s="6">
+        <v>2</v>
+      </c>
+      <c r="M35" s="31"/>
+    </row>
+    <row r="36" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C36" s="16"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="3">
+        <v>45583</v>
+      </c>
+      <c r="I36" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="6">
-        <v>6</v>
-      </c>
-      <c r="M34" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="20"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="3">
-        <v>45583</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="J36" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="K36" s="24"/>
+      <c r="L36" s="6">
+        <v>6</v>
+      </c>
+      <c r="M36" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="16"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="18">
+        <v>45586</v>
+      </c>
+      <c r="I37" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35" s="28"/>
-      <c r="L35" s="6">
-        <v>6</v>
-      </c>
-      <c r="M35" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="20"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="22">
-        <v>45586</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="K36" s="28"/>
-      <c r="L36" s="6">
-        <v>3</v>
-      </c>
-      <c r="M36" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="20"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K37" s="28"/>
+      <c r="J37" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="24"/>
       <c r="L37" s="6">
         <v>3</v>
       </c>
-      <c r="M37" s="36"/>
-    </row>
-    <row r="38" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C38" s="20"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="3">
+      <c r="M37" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="16"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="6">
+        <v>3</v>
+      </c>
+      <c r="M38" s="32"/>
+    </row>
+    <row r="39" spans="3:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="16"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="3">
         <v>45580</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I39" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="K39" s="24"/>
+      <c r="L39" s="6">
+        <v>6</v>
+      </c>
+      <c r="M39" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="16"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="26">
+        <v>45588</v>
+      </c>
+      <c r="I40" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K38" s="28"/>
-      <c r="L38" s="6">
-        <v>6</v>
-      </c>
-      <c r="M38" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="20"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="30">
-        <v>45588</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K39" s="28"/>
-      <c r="L39" s="6">
+      <c r="J40" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" s="24"/>
+      <c r="L40" s="6">
         <v>4</v>
       </c>
-      <c r="M39" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="21"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K40" s="28"/>
-      <c r="L40" s="6">
-        <v>2</v>
-      </c>
-      <c r="M40" s="36"/>
-    </row>
-    <row r="41" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="30">
-        <v>45590</v>
-      </c>
-      <c r="E41" s="30">
-        <v>45594</v>
-      </c>
-      <c r="F41" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G41" s="29">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H41" s="30">
-        <v>45590</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K41" s="28" t="s">
-        <v>151</v>
-      </c>
+      <c r="M40" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="17"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K41" s="24"/>
       <c r="L41" s="6">
         <v>2</v>
       </c>
-      <c r="M41" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C42" s="28"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K42" s="28"/>
+      <c r="M41" s="32"/>
+    </row>
+    <row r="42" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="26">
+        <v>45590</v>
+      </c>
+      <c r="E42" s="26">
+        <v>45594</v>
+      </c>
+      <c r="F42" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G42" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H42" s="26">
+        <v>45590</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="L42" s="6">
         <v>2</v>
       </c>
-      <c r="M42" s="36"/>
-    </row>
-    <row r="43" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C43" s="28"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K43" s="28"/>
+      <c r="M42" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="C43" s="24"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" s="24"/>
       <c r="L43" s="6">
         <v>2</v>
       </c>
-      <c r="M43" s="36"/>
-    </row>
-    <row r="44" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="28"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30">
-        <v>45593</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K44" s="28"/>
+      <c r="M43" s="32"/>
+    </row>
+    <row r="44" spans="3:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="24"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="K44" s="24"/>
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="28"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K45" s="28"/>
+      <c r="M44" s="32"/>
+    </row>
+    <row r="45" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="24"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26">
+        <v>45593</v>
+      </c>
+      <c r="I45" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="K45" s="24"/>
       <c r="L45" s="6">
         <v>2</v>
       </c>
-      <c r="M45" s="36"/>
-    </row>
-    <row r="46" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C46" s="28"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K46" s="28"/>
+      <c r="M45" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C46" s="24"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="K46" s="24"/>
       <c r="L46" s="6">
         <v>2</v>
       </c>
-      <c r="M46" s="36"/>
-    </row>
-    <row r="47" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="28"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30">
-        <v>45594</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K47" s="28"/>
+      <c r="M46" s="32"/>
+    </row>
+    <row r="47" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C47" s="24"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="K47" s="24"/>
       <c r="L47" s="6">
         <v>2</v>
       </c>
-      <c r="M47" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C48" s="28"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K48" s="28"/>
+      <c r="M47" s="32"/>
+    </row>
+    <row r="48" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C48" s="24"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26">
+        <v>45594</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="K48" s="24"/>
       <c r="L48" s="6">
         <v>2</v>
       </c>
-      <c r="M48" s="36"/>
+      <c r="M48" s="32">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C49" s="28"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K49" s="28"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K49" s="24"/>
       <c r="L49" s="6">
         <v>2</v>
       </c>
-      <c r="M49" s="36"/>
-    </row>
-    <row r="50" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C50" s="28" t="s">
+      <c r="M49" s="32"/>
+    </row>
+    <row r="50" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C50" s="24"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K50" s="24"/>
+      <c r="L50" s="6">
+        <v>2</v>
+      </c>
+      <c r="M50" s="32"/>
+    </row>
+    <row r="51" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C51" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D51" s="26">
         <v>45596</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E51" s="26">
         <v>45604</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F51" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G51" s="25">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H51" s="26">
         <v>45596</v>
       </c>
-      <c r="I50" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K50" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="L50" s="6">
-        <v>1</v>
-      </c>
-      <c r="M50" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="28"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K51" s="28"/>
+      <c r="I51" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="K51" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="L51" s="6">
         <v>1</v>
       </c>
-      <c r="M51" s="28"/>
+      <c r="M51" s="24">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="28"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K52" s="28"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="K52" s="24"/>
       <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="M52" s="28"/>
-    </row>
-    <row r="53" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C53" s="28"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K53" s="28"/>
+      <c r="M52" s="24"/>
+    </row>
+    <row r="53" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="24"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="K53" s="24"/>
       <c r="L53" s="6">
         <v>1</v>
       </c>
-      <c r="M53" s="28"/>
+      <c r="M53" s="24"/>
     </row>
     <row r="54" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="28"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K54" s="28"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K54" s="24"/>
       <c r="L54" s="6">
         <v>1</v>
       </c>
-      <c r="M54" s="28"/>
-    </row>
-    <row r="55" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="28"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="K55" s="28"/>
+      <c r="M54" s="24"/>
+    </row>
+    <row r="55" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C55" s="24"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="K55" s="24"/>
       <c r="L55" s="6">
         <v>1</v>
       </c>
-      <c r="M55" s="28"/>
-    </row>
-    <row r="56" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C56" s="28"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="30">
+      <c r="M55" s="24"/>
+    </row>
+    <row r="56" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="24"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="K56" s="24"/>
+      <c r="L56" s="6">
+        <v>1</v>
+      </c>
+      <c r="M56" s="24"/>
+    </row>
+    <row r="57" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C57" s="24"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26">
         <v>45602</v>
       </c>
-      <c r="I56" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="K56" s="28"/>
-      <c r="L56" s="6">
+      <c r="I57" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="K57" s="24"/>
+      <c r="L57" s="6">
         <v>2</v>
       </c>
-      <c r="M56" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C57" s="28"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="K57" s="28"/>
-      <c r="L57" s="6">
+      <c r="M57" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C58" s="24"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="K58" s="24"/>
+      <c r="L58" s="6">
         <v>1</v>
       </c>
-      <c r="M57" s="28"/>
-    </row>
-    <row r="58" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C58" s="28"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="K58" s="28"/>
-      <c r="L58" s="6">
+      <c r="M58" s="24"/>
+    </row>
+    <row r="59" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C59" s="24"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="J59" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="K59" s="24"/>
+      <c r="L59" s="6">
         <v>2</v>
       </c>
-      <c r="M58" s="28"/>
-    </row>
-    <row r="59" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C59" s="28"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K59" s="28"/>
-      <c r="L59" s="6">
+      <c r="M59" s="24"/>
+    </row>
+    <row r="60" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C60" s="24"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K60" s="24"/>
+      <c r="L60" s="6">
         <v>1</v>
       </c>
-      <c r="M59" s="28"/>
-    </row>
-    <row r="60" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="28"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30">
+      <c r="M60" s="24"/>
+    </row>
+    <row r="61" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="24"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="26">
         <v>45603</v>
       </c>
-      <c r="I60" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K60" s="28"/>
-      <c r="L60" s="6">
+      <c r="I61" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="K61" s="24"/>
+      <c r="L61" s="6">
         <v>2</v>
       </c>
-      <c r="M60" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C61" s="28"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K61" s="28"/>
-      <c r="L61" s="6">
+      <c r="M61" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C62" s="24"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="K62" s="24"/>
+      <c r="L62" s="6">
         <v>1</v>
       </c>
-      <c r="M61" s="28"/>
-    </row>
-    <row r="62" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C62" s="28"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K62" s="28"/>
-      <c r="L62" s="6">
+      <c r="M62" s="24"/>
+    </row>
+    <row r="63" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C63" s="24"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="K63" s="24"/>
+      <c r="L63" s="6">
         <v>2</v>
       </c>
-      <c r="M62" s="28"/>
-    </row>
-    <row r="63" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C63" s="28"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K63" s="28"/>
-      <c r="L63" s="6">
+      <c r="M63" s="24"/>
+    </row>
+    <row r="64" spans="3:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C64" s="24"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="K64" s="24"/>
+      <c r="L64" s="6">
         <v>1</v>
       </c>
-      <c r="M63" s="28"/>
-    </row>
-    <row r="64" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C64" s="28"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="30">
+      <c r="M64" s="24"/>
+    </row>
+    <row r="65" spans="3:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="C65" s="24"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26">
         <v>45604</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I65" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="K65" s="24"/>
+      <c r="L65" s="6">
+        <v>3</v>
+      </c>
+      <c r="M65" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C66" s="24"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K66" s="24"/>
+      <c r="L66" s="6">
+        <v>2</v>
+      </c>
+      <c r="M66" s="24"/>
+    </row>
+    <row r="67" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C67" s="24"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="K67" s="24"/>
+      <c r="L67" s="6">
+        <v>1</v>
+      </c>
+      <c r="M67" s="24"/>
+    </row>
+    <row r="68" spans="3:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="26">
+        <v>45607</v>
+      </c>
+      <c r="E68" s="26">
+        <v>45615</v>
+      </c>
+      <c r="F68" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G68" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H68" s="26">
+        <v>45607</v>
+      </c>
+      <c r="I68" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="K68" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K64" s="28"/>
-      <c r="L64" s="6">
-        <v>3</v>
-      </c>
-      <c r="M64" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C65" s="28"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K65" s="28"/>
-      <c r="L65" s="6">
-        <v>2</v>
-      </c>
-      <c r="M65" s="28"/>
-    </row>
-    <row r="66" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C66" s="28"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K66" s="28"/>
-      <c r="L66" s="6">
-        <v>1</v>
-      </c>
-      <c r="M66" s="28"/>
-    </row>
-    <row r="67" spans="3:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="30">
-        <v>45607</v>
-      </c>
-      <c r="E67" s="30">
-        <v>45615</v>
-      </c>
-      <c r="F67" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G67" s="29">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H67" s="30">
-        <v>45607</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="K67" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="L67" s="6">
-        <v>2</v>
-      </c>
-      <c r="M67" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="3:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="28"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K68" s="28"/>
       <c r="L68" s="6">
         <v>2</v>
       </c>
-      <c r="M68" s="28"/>
-    </row>
-    <row r="69" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C69" s="28"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K69" s="28"/>
+      <c r="M68" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="24"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K69" s="24"/>
       <c r="L69" s="6">
         <v>2</v>
       </c>
-      <c r="M69" s="28"/>
-    </row>
-    <row r="70" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C70" s="28"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="30">
-        <v>45608</v>
-      </c>
-      <c r="I70" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K70" s="28"/>
+      <c r="M69" s="24"/>
+    </row>
+    <row r="70" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C70" s="24"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="K70" s="24"/>
       <c r="L70" s="6">
         <v>2</v>
       </c>
-      <c r="M70" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C71" s="28"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="K71" s="28"/>
+      <c r="M70" s="24"/>
+    </row>
+    <row r="71" spans="3:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C71" s="24"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26">
+        <v>45608</v>
+      </c>
+      <c r="I71" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="K71" s="24"/>
       <c r="L71" s="6">
-        <v>1</v>
-      </c>
-      <c r="M71" s="28"/>
-    </row>
-    <row r="72" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C72" s="28"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="K72" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="M71" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C72" s="24"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="K72" s="24"/>
       <c r="L72" s="6">
         <v>1</v>
       </c>
-      <c r="M72" s="28"/>
-    </row>
-    <row r="73" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C73" s="28"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K73" s="28"/>
+      <c r="M72" s="24"/>
+    </row>
+    <row r="73" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C73" s="24"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="J73" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="K73" s="24"/>
       <c r="L73" s="6">
         <v>1</v>
       </c>
-      <c r="M73" s="28"/>
-    </row>
-    <row r="74" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C74" s="28"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K74" s="28"/>
+      <c r="M73" s="24"/>
+    </row>
+    <row r="74" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C74" s="24"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="K74" s="24"/>
       <c r="L74" s="6">
         <v>1</v>
       </c>
-      <c r="M74" s="28"/>
-    </row>
-    <row r="75" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="28"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="30">
+      <c r="M74" s="24"/>
+    </row>
+    <row r="75" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C75" s="24"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="K75" s="24"/>
+      <c r="L75" s="6">
+        <v>1</v>
+      </c>
+      <c r="M75" s="24"/>
+    </row>
+    <row r="76" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="24"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26">
         <v>45609</v>
       </c>
-      <c r="I75" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K75" s="28"/>
-      <c r="L75" s="36">
+      <c r="I76" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K76" s="24"/>
+      <c r="L76" s="32">
         <v>2</v>
       </c>
-      <c r="M75" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C76" s="28"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="K76" s="28"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="28"/>
+      <c r="M76" s="24">
+        <v>6</v>
+      </c>
     </row>
     <row r="77" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C77" s="28"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K77" s="28"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="28"/>
-    </row>
-    <row r="78" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="28"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K78" s="28"/>
-      <c r="L78" s="6">
+      <c r="C77" s="24"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K77" s="24"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="24"/>
+    </row>
+    <row r="78" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C78" s="24"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K78" s="24"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="24"/>
+    </row>
+    <row r="79" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="24"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="K79" s="24"/>
+      <c r="L79" s="6">
         <v>2</v>
       </c>
-      <c r="M78" s="28"/>
-    </row>
-    <row r="79" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="28"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K79" s="28"/>
-      <c r="L79" s="6">
-        <v>1</v>
-      </c>
-      <c r="M79" s="28"/>
-    </row>
-    <row r="80" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="28"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K80" s="28"/>
+      <c r="M79" s="24"/>
+    </row>
+    <row r="80" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="24"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K80" s="24"/>
       <c r="L80" s="6">
         <v>1</v>
       </c>
-      <c r="M80" s="28"/>
-    </row>
-    <row r="81" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="28"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="30">
+      <c r="M80" s="24"/>
+    </row>
+    <row r="81" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="24"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K81" s="24"/>
+      <c r="L81" s="6">
+        <v>1</v>
+      </c>
+      <c r="M81" s="24"/>
+    </row>
+    <row r="82" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="24"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26">
         <v>45610</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K81" s="28"/>
-      <c r="L81" s="6">
+      <c r="I82" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K82" s="24"/>
+      <c r="L82" s="6">
         <v>3</v>
       </c>
-      <c r="M81" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="28"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K82" s="28"/>
-      <c r="L82" s="6">
+      <c r="M82" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="24"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K83" s="24"/>
+      <c r="L83" s="6">
         <v>2</v>
       </c>
-      <c r="M82" s="28"/>
-    </row>
-    <row r="83" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C83" s="28"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K83" s="28"/>
-      <c r="L83" s="6">
+      <c r="M83" s="24"/>
+    </row>
+    <row r="84" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C84" s="24"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K84" s="24"/>
+      <c r="L84" s="6">
         <v>1</v>
       </c>
-      <c r="M83" s="28"/>
-    </row>
-    <row r="84" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C84" s="28"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="30">
+      <c r="M84" s="24"/>
+    </row>
+    <row r="85" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C85" s="24"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="26">
         <v>45611</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K84" s="28"/>
-      <c r="L84" s="6">
+      <c r="I85" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="K85" s="24"/>
+      <c r="L85" s="6">
         <v>3</v>
       </c>
-      <c r="M84" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C85" s="28"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K85" s="28"/>
-      <c r="L85" s="6">
+      <c r="M85" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C86" s="24"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K86" s="24"/>
+      <c r="L86" s="6">
         <v>2</v>
       </c>
-      <c r="M85" s="28"/>
-    </row>
-    <row r="86" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="28"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="K86" s="28"/>
-      <c r="L86" s="6">
+      <c r="M86" s="24"/>
+    </row>
+    <row r="87" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="24"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="K87" s="24"/>
+      <c r="L87" s="6">
         <v>1</v>
       </c>
-      <c r="M86" s="28"/>
-    </row>
-    <row r="87" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C87" s="28"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="30">
+      <c r="M87" s="24"/>
+    </row>
+    <row r="88" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C88" s="24"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26">
         <v>45614</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K87" s="28"/>
-      <c r="L87" s="6">
+      <c r="I88" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K88" s="24"/>
+      <c r="L88" s="6">
         <v>4</v>
       </c>
-      <c r="M87" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C88" s="28"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K88" s="28"/>
-      <c r="L88" s="6">
+      <c r="M88" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C89" s="24"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="K89" s="24"/>
+      <c r="L89" s="6">
         <v>2</v>
       </c>
-      <c r="M88" s="28"/>
-    </row>
-    <row r="89" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C89" s="28"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="30">
+      <c r="M89" s="24"/>
+    </row>
+    <row r="90" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C90" s="24"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="26">
         <v>45615</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K89" s="28"/>
-      <c r="L89" s="6">
+      <c r="I90" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K90" s="24"/>
+      <c r="L90" s="6">
         <v>4</v>
       </c>
-      <c r="M89" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C90" s="28"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K90" s="28"/>
-      <c r="L90" s="6">
-        <v>2</v>
-      </c>
-      <c r="M90" s="28"/>
-    </row>
-    <row r="91" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C91" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="30">
-        <v>45616</v>
-      </c>
-      <c r="E91" s="30">
-        <v>45616</v>
-      </c>
-      <c r="F91" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G91" s="29">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H91" s="30">
-        <v>45616</v>
-      </c>
-      <c r="I91" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K91" s="36"/>
+      <c r="M90" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C91" s="24"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="K91" s="24"/>
       <c r="L91" s="6">
         <v>2</v>
       </c>
-      <c r="M91" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="28"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K92" s="36"/>
+      <c r="M91" s="24"/>
+    </row>
+    <row r="92" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C92" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="26">
+        <v>45616</v>
+      </c>
+      <c r="E92" s="26">
+        <v>45616</v>
+      </c>
+      <c r="F92" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G92" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H92" s="26">
+        <v>45616</v>
+      </c>
+      <c r="I92" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K92" s="32"/>
       <c r="L92" s="6">
-        <v>1</v>
-      </c>
-      <c r="M92" s="28"/>
-    </row>
-    <row r="93" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="28"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K93" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="M92" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="24"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="K93" s="32"/>
       <c r="L93" s="6">
         <v>1</v>
       </c>
-      <c r="M93" s="28"/>
+      <c r="M93" s="24"/>
     </row>
     <row r="94" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="28"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K94" s="36"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="K94" s="32"/>
       <c r="L94" s="6">
         <v>2</v>
       </c>
-      <c r="M94" s="28"/>
-    </row>
-    <row r="95" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="28" t="s">
+      <c r="M94" s="24"/>
+    </row>
+    <row r="95" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="24"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="52"/>
+      <c r="J95" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K95" s="32"/>
+      <c r="L95" s="6">
+        <v>1</v>
+      </c>
+      <c r="M95" s="24"/>
+    </row>
+    <row r="96" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="30">
+      <c r="D96" s="26">
         <v>45617</v>
       </c>
-      <c r="E95" s="30">
+      <c r="E96" s="26">
         <v>45618</v>
       </c>
-      <c r="F95" s="29">
+      <c r="F96" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G95" s="29">
+      <c r="G96" s="25">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H95" s="30">
+      <c r="H96" s="26">
         <v>45617</v>
       </c>
-      <c r="I95" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K95" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="L95" s="6">
+      <c r="I96" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="J96" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="L96" s="6">
         <v>2</v>
       </c>
-      <c r="M95" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C96" s="28"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K96" s="20"/>
-      <c r="L96" s="6">
+      <c r="M96" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C97" s="24"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="K97" s="16"/>
+      <c r="L97" s="6">
         <v>1</v>
       </c>
-      <c r="M96" s="20"/>
-    </row>
-    <row r="97" spans="3:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="28"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K97" s="20"/>
-      <c r="L97" s="6">
+      <c r="M97" s="16"/>
+    </row>
+    <row r="98" spans="3:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="24"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="K98" s="16"/>
+      <c r="L98" s="6">
         <v>2</v>
       </c>
-      <c r="M97" s="20"/>
-    </row>
-    <row r="98" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="28"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K98" s="20"/>
-      <c r="L98" s="6">
+      <c r="M98" s="16"/>
+    </row>
+    <row r="99" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="24"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="K99" s="16"/>
+      <c r="L99" s="6">
         <v>1</v>
       </c>
-      <c r="M98" s="21"/>
-    </row>
-    <row r="99" spans="3:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="28"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="11">
+      <c r="M99" s="17"/>
+    </row>
+    <row r="100" spans="3:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="24"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="11">
         <v>45618</v>
       </c>
-      <c r="I99" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K99" s="20"/>
-      <c r="L99" s="6">
-        <v>6</v>
-      </c>
-      <c r="M99" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="19" t="s">
+      <c r="I100" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="J100" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K100" s="16"/>
+      <c r="L100" s="6">
+        <v>6</v>
+      </c>
+      <c r="M100" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D101" s="18">
         <v>45621</v>
       </c>
-      <c r="E100" s="22">
+      <c r="E101" s="18">
         <v>45621</v>
       </c>
-      <c r="F100" s="24">
+      <c r="F101" s="20">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G100" s="24">
+      <c r="G101" s="20">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H100" s="22">
+      <c r="H101" s="18">
         <v>45621</v>
       </c>
-      <c r="I100" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K100" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="L100" s="2">
-        <v>3</v>
-      </c>
-      <c r="M100" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="21"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K101" s="21"/>
+      <c r="I101" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="K101" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="L101" s="2">
         <v>3</v>
       </c>
-      <c r="M101" s="21"/>
-    </row>
-    <row r="102" spans="3:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="30">
-        <v>45622</v>
-      </c>
-      <c r="E102" s="30">
-        <v>45622</v>
-      </c>
-      <c r="F102" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G102" s="29">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H102" s="22">
-        <v>45622</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J102" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="K102" s="19" t="s">
-        <v>240</v>
-      </c>
+      <c r="M101" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="17"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K102" s="17"/>
       <c r="L102" s="2">
         <v>3</v>
       </c>
-      <c r="M102" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C103" s="28"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="2" t="s">
-        <v>234</v>
+      <c r="M102" s="17"/>
+    </row>
+    <row r="103" spans="3:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="26">
+        <v>45622</v>
+      </c>
+      <c r="E103" s="26">
+        <v>45622</v>
+      </c>
+      <c r="F103" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G103" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H103" s="18">
+        <v>45622</v>
+      </c>
+      <c r="I103" s="64" t="s">
+        <v>185</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="K103" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="K103" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="L103" s="2">
+        <v>3</v>
+      </c>
+      <c r="M103" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C104" s="24"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="J104" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="K104" s="16"/>
+      <c r="L104" s="2">
         <v>1</v>
       </c>
-      <c r="M103" s="28"/>
-    </row>
-    <row r="104" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C104" s="28"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K104" s="21"/>
-      <c r="L104" s="2">
+      <c r="M104" s="24"/>
+    </row>
+    <row r="105" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C105" s="24"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="K105" s="17"/>
+      <c r="L105" s="2">
         <v>2</v>
       </c>
-      <c r="M104" s="28"/>
-    </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C105" s="44" t="s">
+      <c r="M105" s="24"/>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C106" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12">
-        <f>SUM(L6:L104)</f>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12">
+        <f>SUM(L6:L105)</f>
         <v>240</v>
       </c>
-      <c r="M105" s="12">
-        <f>SUM(M6:M103)</f>
+      <c r="M106" s="12">
+        <f>SUM(M6:M104)</f>
         <v>240</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="160">
-    <mergeCell ref="K6:K11"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="M102:M104"/>
-    <mergeCell ref="M91:M94"/>
-    <mergeCell ref="G91:G94"/>
+  <mergeCells count="163">
+    <mergeCell ref="M92:M95"/>
+    <mergeCell ref="G92:G95"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K40"/>
+    <mergeCell ref="K12:K41"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C105:I105"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="E95:E99"/>
-    <mergeCell ref="F95:F99"/>
-    <mergeCell ref="G95:G99"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="F91:F94"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="F41:F49"/>
-    <mergeCell ref="G41:G49"/>
-    <mergeCell ref="C67:C90"/>
-    <mergeCell ref="D67:D90"/>
-    <mergeCell ref="E67:E90"/>
-    <mergeCell ref="F67:F90"/>
-    <mergeCell ref="G67:G90"/>
+    <mergeCell ref="F68:F91"/>
+    <mergeCell ref="G68:G91"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="M14:M15"/>
@@ -5574,6 +5681,39 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="M18:M19"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I51:I56"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="H71:H75"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="C106:I106"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="G96:G100"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="E42:E50"/>
+    <mergeCell ref="F42:F50"/>
+    <mergeCell ref="G42:G50"/>
+    <mergeCell ref="C68:C91"/>
+    <mergeCell ref="D68:D91"/>
+    <mergeCell ref="E68:E91"/>
     <mergeCell ref="C1:M2"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D11"/>
@@ -5585,18 +5725,22 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C12:C40"/>
-    <mergeCell ref="D12:D40"/>
-    <mergeCell ref="E12:E40"/>
-    <mergeCell ref="F12:F40"/>
-    <mergeCell ref="G12:G40"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K6:K11"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="C12:C41"/>
+    <mergeCell ref="D12:D41"/>
+    <mergeCell ref="E12:E41"/>
+    <mergeCell ref="F12:F41"/>
+    <mergeCell ref="G12:G41"/>
     <mergeCell ref="J3:M4"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="M42:M44"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="M24:M25"/>
@@ -5607,93 +5751,86 @@
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="M32:M33"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I50:I55"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="H70:H74"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H75:H80"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="M75:M80"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="M50:M55"/>
-    <mergeCell ref="H50:H55"/>
-    <mergeCell ref="C50:C66"/>
-    <mergeCell ref="D50:D66"/>
-    <mergeCell ref="E50:E66"/>
-    <mergeCell ref="F50:F66"/>
-    <mergeCell ref="G50:G66"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="K50:K66"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="M56:M59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="M60:M63"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K41:K49"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="K95:K99"/>
+    <mergeCell ref="H76:H81"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="M51:M56"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="K42:K50"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="C51:C67"/>
+    <mergeCell ref="D51:D67"/>
+    <mergeCell ref="E51:E67"/>
+    <mergeCell ref="F51:F67"/>
+    <mergeCell ref="G51:G67"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="K51:K67"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="M96:M99"/>
+    <mergeCell ref="K96:K100"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="K91:K94"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="H91:H94"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="M84:M86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="M70:M74"/>
-    <mergeCell ref="K67:K90"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="H102:H104"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="K102:K104"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="M71:M75"/>
+    <mergeCell ref="K68:K91"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="M103:M105"/>
   </mergeCells>
-  <conditionalFormatting sqref="I41 I44 I47 J52:J54">
+  <conditionalFormatting sqref="I42 I45 I48 J53:J55">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
